--- a/Code/Results/Cases/Case_4_13/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_13/res_bus/vm_pu.xlsx
@@ -421,13 +421,13 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.003871458061143</v>
+        <v>1.003871458061142</v>
       </c>
       <c r="D2">
         <v>1.019397390857654</v>
       </c>
       <c r="E2">
-        <v>1.014246687097305</v>
+        <v>1.014246687097304</v>
       </c>
       <c r="F2">
         <v>1.020452055353069</v>
@@ -436,7 +436,7 @@
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.046664034931106</v>
+        <v>1.046664034931105</v>
       </c>
       <c r="J2">
         <v>1.025936987879134</v>
@@ -462,13 +462,13 @@
         <v>1.01470119787227</v>
       </c>
       <c r="D3">
-        <v>1.027994787566284</v>
+        <v>1.027994787566283</v>
       </c>
       <c r="E3">
         <v>1.024527173735714</v>
       </c>
       <c r="F3">
-        <v>1.030520951601496</v>
+        <v>1.030520951601495</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -480,10 +480,10 @@
         <v>1.034798961347736</v>
       </c>
       <c r="K3">
-        <v>1.038281574511865</v>
+        <v>1.038281574511864</v>
       </c>
       <c r="L3">
-        <v>1.034855555882696</v>
+        <v>1.034855555882695</v>
       </c>
       <c r="M3">
         <v>1.040777654782652</v>
@@ -497,7 +497,7 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.021397890679144</v>
+        <v>1.021397890679143</v>
       </c>
       <c r="D4">
         <v>1.033308326560896</v>
@@ -524,7 +524,7 @@
         <v>1.040629331842227</v>
       </c>
       <c r="M4">
-        <v>1.046429161711661</v>
+        <v>1.046429161711662</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,16 +535,16 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.024144859333744</v>
+        <v>1.024144859333745</v>
       </c>
       <c r="D5">
-        <v>1.035487114591886</v>
+        <v>1.035487114591887</v>
       </c>
       <c r="E5">
-        <v>1.033501221005399</v>
+        <v>1.0335012210054</v>
       </c>
       <c r="F5">
-        <v>1.039313901185829</v>
+        <v>1.03931390118583</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -556,13 +556,13 @@
         <v>1.042511408722453</v>
       </c>
       <c r="K5">
-        <v>1.044960956578091</v>
+        <v>1.044960956578092</v>
       </c>
       <c r="L5">
-        <v>1.042996555935072</v>
+        <v>1.042996555935073</v>
       </c>
       <c r="M5">
-        <v>1.048746610356986</v>
+        <v>1.048746610356988</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,16 +573,16 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.024602243604556</v>
+        <v>1.024602243604557</v>
       </c>
       <c r="D6">
-        <v>1.035849841888091</v>
+        <v>1.035849841888092</v>
       </c>
       <c r="E6">
-        <v>1.033936081079398</v>
+        <v>1.033936081079399</v>
       </c>
       <c r="F6">
-        <v>1.039740070927942</v>
+        <v>1.039740070927943</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -591,16 +591,16 @@
         <v>1.055218204253798</v>
       </c>
       <c r="J6">
-        <v>1.042884539293249</v>
+        <v>1.04288453929325</v>
       </c>
       <c r="K6">
-        <v>1.045283796401971</v>
+        <v>1.045283796401972</v>
       </c>
       <c r="L6">
-        <v>1.043390639886564</v>
+        <v>1.043390639886565</v>
       </c>
       <c r="M6">
-        <v>1.049132427967815</v>
+        <v>1.049132427967816</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +611,34 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.021434856797521</v>
+        <v>1.02143485679752</v>
       </c>
       <c r="D7">
-        <v>1.033337650059444</v>
+        <v>1.033337650059443</v>
       </c>
       <c r="E7">
         <v>1.030925092523304</v>
       </c>
       <c r="F7">
-        <v>1.036789416138566</v>
+        <v>1.036789416138565</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.053920797158645</v>
+        <v>1.053920797158644</v>
       </c>
       <c r="J7">
-        <v>1.040299811196129</v>
+        <v>1.040299811196128</v>
       </c>
       <c r="K7">
-        <v>1.043046831203038</v>
+        <v>1.043046831203037</v>
       </c>
       <c r="L7">
         <v>1.040661192450249</v>
       </c>
       <c r="M7">
-        <v>1.046460351019892</v>
+        <v>1.046460351019891</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,16 +649,16 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.007599732903485</v>
+        <v>1.007599732903486</v>
       </c>
       <c r="D8">
-        <v>1.022357641066954</v>
+        <v>1.022357641066955</v>
       </c>
       <c r="E8">
-        <v>1.017784579505986</v>
+        <v>1.017784579505987</v>
       </c>
       <c r="F8">
-        <v>1.023916632983633</v>
+        <v>1.023916632983634</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -667,16 +667,16 @@
         <v>1.048212634068942</v>
       </c>
       <c r="J8">
-        <v>1.028989756632155</v>
+        <v>1.028989756632156</v>
       </c>
       <c r="K8">
-        <v>1.033243046309904</v>
+        <v>1.033243046309905</v>
       </c>
       <c r="L8">
-        <v>1.028728917820738</v>
+        <v>1.02872891782074</v>
       </c>
       <c r="M8">
-        <v>1.034782097832769</v>
+        <v>1.034782097832771</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +687,34 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9805122060450149</v>
+        <v>0.9805122060450129</v>
       </c>
       <c r="D9">
-        <v>1.000845621573495</v>
+        <v>1.000845621573493</v>
       </c>
       <c r="E9">
-        <v>0.9921115645343899</v>
+        <v>0.9921115645343879</v>
       </c>
       <c r="F9">
-        <v>0.9987876482294125</v>
+        <v>0.9987876482294109</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.036878624650959</v>
+        <v>1.036878624650958</v>
       </c>
       <c r="J9">
-        <v>1.006772407756369</v>
+        <v>1.006772407756367</v>
       </c>
       <c r="K9">
-        <v>1.013924994040205</v>
+        <v>1.013924994040203</v>
       </c>
       <c r="L9">
-        <v>1.00533393593682</v>
+        <v>1.005333935936818</v>
       </c>
       <c r="M9">
-        <v>1.011900425666894</v>
+        <v>1.011900425666892</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +725,34 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.960063096154379</v>
+        <v>0.9600630961543791</v>
       </c>
       <c r="D10">
-        <v>0.9846110409330904</v>
+        <v>0.9846110409330906</v>
       </c>
       <c r="E10">
-        <v>0.9727794835138071</v>
+        <v>0.9727794835138073</v>
       </c>
       <c r="F10">
-        <v>0.9798840412956623</v>
+        <v>0.9798840412956625</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.028218560455274</v>
+        <v>1.028218560455275</v>
       </c>
       <c r="J10">
-        <v>0.9899560003159629</v>
+        <v>0.9899560003159631</v>
       </c>
       <c r="K10">
-        <v>0.9992638201187966</v>
+        <v>0.9992638201187968</v>
       </c>
       <c r="L10">
         <v>0.9876582428156232</v>
       </c>
       <c r="M10">
-        <v>0.994626248919643</v>
+        <v>0.9946262489196431</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +763,34 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9504681794047606</v>
+        <v>0.9504681794047617</v>
       </c>
       <c r="D11">
-        <v>0.9769995525185297</v>
+        <v>0.9769995525185308</v>
       </c>
       <c r="E11">
-        <v>0.9637238252701561</v>
+        <v>0.9637238252701575</v>
       </c>
       <c r="F11">
-        <v>0.9710348641181721</v>
+        <v>0.9710348641181733</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.02413217095518</v>
+        <v>1.024132170955181</v>
       </c>
       <c r="J11">
-        <v>0.9820572705231962</v>
+        <v>0.9820572705231972</v>
       </c>
       <c r="K11">
-        <v>0.9923686615212348</v>
+        <v>0.9923686615212356</v>
       </c>
       <c r="L11">
-        <v>0.9793638910427652</v>
+        <v>0.9793638910427666</v>
       </c>
       <c r="M11">
-        <v>0.986524503874517</v>
+        <v>0.9865245038745183</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,16 +801,16 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9467733492371627</v>
+        <v>0.9467733492371635</v>
       </c>
       <c r="D12">
-        <v>0.9740699095983449</v>
+        <v>0.9740699095983458</v>
       </c>
       <c r="E12">
-        <v>0.9602393026531509</v>
+        <v>0.9602393026531514</v>
       </c>
       <c r="F12">
-        <v>0.9676308016137859</v>
+        <v>0.967630801613787</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -819,16 +819,16 @@
         <v>1.022555315893471</v>
       </c>
       <c r="J12">
-        <v>0.979014609250788</v>
+        <v>0.9790146092507885</v>
       </c>
       <c r="K12">
-        <v>0.9897113407695189</v>
+        <v>0.9897113407695196</v>
       </c>
       <c r="L12">
-        <v>0.9761700681535577</v>
+        <v>0.9761700681535583</v>
       </c>
       <c r="M12">
-        <v>0.9834055778025724</v>
+        <v>0.9834055778025735</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,16 +839,16 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9475721972520135</v>
+        <v>0.9475721972520127</v>
       </c>
       <c r="D13">
-        <v>0.9747032460252876</v>
+        <v>0.9747032460252871</v>
       </c>
       <c r="E13">
-        <v>0.9609925545624238</v>
+        <v>0.9609925545624234</v>
       </c>
       <c r="F13">
-        <v>0.9683666123985748</v>
+        <v>0.9683666123985741</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -857,16 +857,16 @@
         <v>1.022896385936013</v>
       </c>
       <c r="J13">
-        <v>0.9796724942561813</v>
+        <v>0.9796724942561807</v>
       </c>
       <c r="K13">
-        <v>0.9902859619891631</v>
+        <v>0.9902859619891625</v>
       </c>
       <c r="L13">
-        <v>0.9768605811263128</v>
+        <v>0.9768605811263125</v>
       </c>
       <c r="M13">
-        <v>0.9840798630786852</v>
+        <v>0.9840798630786847</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +877,34 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9501655652877696</v>
+        <v>0.9501655652877677</v>
       </c>
       <c r="D14">
-        <v>0.9767595771048387</v>
+        <v>0.9767595771048374</v>
       </c>
       <c r="E14">
-        <v>0.9634383799231689</v>
+        <v>0.9634383799231674</v>
       </c>
       <c r="F14">
-        <v>0.9707559886522144</v>
+        <v>0.9707559886522129</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.024003087717422</v>
+        <v>1.024003087717421</v>
       </c>
       <c r="J14">
-        <v>0.9818080889279573</v>
+        <v>0.9818080889279556</v>
       </c>
       <c r="K14">
-        <v>0.9921510623508192</v>
+        <v>0.992151062350818</v>
       </c>
       <c r="L14">
-        <v>0.9791023047968865</v>
+        <v>0.9791023047968849</v>
       </c>
       <c r="M14">
-        <v>0.9862690365499794</v>
+        <v>0.986269036549978</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +915,34 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9517454097971856</v>
+        <v>0.9517454097971882</v>
       </c>
       <c r="D15">
-        <v>0.9780124664465962</v>
+        <v>0.9780124664465986</v>
       </c>
       <c r="E15">
-        <v>0.964928701471834</v>
+        <v>0.9649287014718363</v>
       </c>
       <c r="F15">
-        <v>0.9722120502018224</v>
+        <v>0.9722120502018248</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.024676856804059</v>
+        <v>1.02467685680406</v>
       </c>
       <c r="J15">
-        <v>0.9831089417567986</v>
+        <v>0.9831089417568011</v>
       </c>
       <c r="K15">
-        <v>0.9932869893734365</v>
+        <v>0.9932869893734387</v>
       </c>
       <c r="L15">
-        <v>0.9804679661852242</v>
+        <v>0.9804679661852266</v>
       </c>
       <c r="M15">
-        <v>0.9876027831098435</v>
+        <v>0.9876027831098458</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,16 +953,16 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.960682719934158</v>
+        <v>0.9606827199341591</v>
       </c>
       <c r="D16">
-        <v>0.9851027388458975</v>
+        <v>0.9851027388458985</v>
       </c>
       <c r="E16">
-        <v>0.9733646203199938</v>
+        <v>0.9733646203199947</v>
       </c>
       <c r="F16">
-        <v>0.9804559648417401</v>
+        <v>0.9804559648417408</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -971,16 +971,16 @@
         <v>1.028481999251516</v>
       </c>
       <c r="J16">
-        <v>0.9904659368547164</v>
+        <v>0.9904659368547175</v>
       </c>
       <c r="K16">
-        <v>0.9997087940367493</v>
+        <v>0.9997087940367503</v>
       </c>
       <c r="L16">
-        <v>0.9881938858739157</v>
+        <v>0.9881938858739167</v>
       </c>
       <c r="M16">
-        <v>0.9951495469154064</v>
+        <v>0.9951495469154072</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,34 +991,34 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9660783103129807</v>
+        <v>0.9660783103129794</v>
       </c>
       <c r="D17">
-        <v>0.9893850735533231</v>
+        <v>0.9893850735533221</v>
       </c>
       <c r="E17">
-        <v>0.9784616122129317</v>
+        <v>0.9784616122129305</v>
       </c>
       <c r="F17">
-        <v>0.9854385111558445</v>
+        <v>0.9854385111558435</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.030773458600958</v>
+        <v>1.030773458600957</v>
       </c>
       <c r="J17">
-        <v>0.9949054904891105</v>
+        <v>0.9949054904891094</v>
       </c>
       <c r="K17">
-        <v>1.003581816427594</v>
+        <v>1.003581816427593</v>
       </c>
       <c r="L17">
-        <v>0.9928581290957906</v>
+        <v>0.9928581290957895</v>
       </c>
       <c r="M17">
-        <v>0.9997067658204757</v>
+        <v>0.9997067658204746</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1026,37 +1026,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C18">
-        <v>0.9691555921024578</v>
+        <v>0.9691555921024555</v>
       </c>
       <c r="D18">
-        <v>0.9918279366233118</v>
+        <v>0.9918279366233097</v>
       </c>
       <c r="E18">
-        <v>0.9813699568861469</v>
+        <v>0.9813699568861445</v>
       </c>
       <c r="F18">
-        <v>0.9882820737024401</v>
+        <v>0.988282073702438</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.032078225210687</v>
+        <v>1.032078225210685</v>
       </c>
       <c r="J18">
-        <v>0.9974367315745342</v>
+        <v>0.9974367315745319</v>
       </c>
       <c r="K18">
-        <v>1.005789237417048</v>
+        <v>1.005789237417046</v>
       </c>
       <c r="L18">
-        <v>0.9955182092593263</v>
+        <v>0.995518209259324</v>
       </c>
       <c r="M18">
-        <v>1.002306186529739</v>
+        <v>1.002306186529737</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,34 +1067,34 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9701935305656538</v>
+        <v>0.9701935305656527</v>
       </c>
       <c r="D19">
-        <v>0.9926519646559819</v>
+        <v>0.9926519646559806</v>
       </c>
       <c r="E19">
-        <v>0.9823511362183067</v>
+        <v>0.9823511362183055</v>
       </c>
       <c r="F19">
-        <v>0.9892414824069783</v>
+        <v>0.9892414824069774</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.032517944955655</v>
+        <v>1.032517944955654</v>
       </c>
       <c r="J19">
-        <v>0.9982903568339286</v>
+        <v>0.9982903568339274</v>
       </c>
       <c r="K19">
-        <v>1.006533520014253</v>
+        <v>1.006533520014252</v>
       </c>
       <c r="L19">
-        <v>0.9964154067331784</v>
+        <v>0.996415406733177</v>
       </c>
       <c r="M19">
-        <v>1.003182986187093</v>
+        <v>1.003182986187092</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,34 +1105,34 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.96550676785581</v>
+        <v>0.9655067678558069</v>
       </c>
       <c r="D20">
-        <v>0.9889313995780804</v>
+        <v>0.9889313995780772</v>
       </c>
       <c r="E20">
-        <v>0.9779215550407522</v>
+        <v>0.9779215550407488</v>
       </c>
       <c r="F20">
-        <v>0.9849105250105245</v>
+        <v>0.9849105250105213</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.03053095034596</v>
+        <v>1.030530950345958</v>
       </c>
       <c r="J20">
-        <v>0.9944352988316654</v>
+        <v>0.9944352988316622</v>
       </c>
       <c r="K20">
-        <v>1.003171709835132</v>
+        <v>1.003171709835129</v>
       </c>
       <c r="L20">
-        <v>0.9923640641627658</v>
+        <v>0.9923640641627629</v>
       </c>
       <c r="M20">
-        <v>0.9992239974896939</v>
+        <v>0.9992239974896909</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,16 +1143,16 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9494056792391905</v>
+        <v>0.9494056792391895</v>
       </c>
       <c r="D21">
-        <v>0.9761570058380207</v>
+        <v>0.9761570058380202</v>
       </c>
       <c r="E21">
-        <v>0.962721649726208</v>
+        <v>0.9627216497262072</v>
       </c>
       <c r="F21">
-        <v>0.9700557715755157</v>
+        <v>0.9700557715755146</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -1161,16 +1161,16 @@
         <v>1.023678898904322</v>
       </c>
       <c r="J21">
-        <v>0.9811823607366951</v>
+        <v>0.9811823607366943</v>
       </c>
       <c r="K21">
-        <v>0.9916046222000913</v>
+        <v>0.9916046222000906</v>
       </c>
       <c r="L21">
-        <v>0.9784454467805306</v>
+        <v>0.9784454467805297</v>
       </c>
       <c r="M21">
-        <v>0.9856275555920534</v>
+        <v>0.9856275555920524</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,34 +1181,34 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9385112199433954</v>
+        <v>0.9385112199433936</v>
       </c>
       <c r="D22">
-        <v>0.9675221479136403</v>
+        <v>0.9675221479136388</v>
       </c>
       <c r="E22">
-        <v>0.9524528802499695</v>
+        <v>0.9524528802499674</v>
       </c>
       <c r="F22">
-        <v>0.9600262380968551</v>
+        <v>0.9600262380968532</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.019023465203388</v>
+        <v>1.019023465203387</v>
       </c>
       <c r="J22">
-        <v>0.9722092910116669</v>
+        <v>0.9722092910116651</v>
       </c>
       <c r="K22">
-        <v>0.9837656717345893</v>
+        <v>0.9837656717345878</v>
       </c>
       <c r="L22">
-        <v>0.9690290012160236</v>
+        <v>0.9690290012160214</v>
       </c>
       <c r="M22">
-        <v>0.9764334698152999</v>
+        <v>0.9764334698152981</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,34 +1219,34 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.944367712835769</v>
+        <v>0.9443677128357651</v>
       </c>
       <c r="D23">
-        <v>0.9721629448512005</v>
+        <v>0.9721629448511975</v>
       </c>
       <c r="E23">
-        <v>0.9579713961873461</v>
+        <v>0.9579713961873421</v>
       </c>
       <c r="F23">
-        <v>0.9654155680004228</v>
+        <v>0.9654155680004188</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.021527763889655</v>
+        <v>1.021527763889653</v>
       </c>
       <c r="J23">
-        <v>0.9770333422447075</v>
+        <v>0.9770333422447038</v>
       </c>
       <c r="K23">
-        <v>0.987980652671494</v>
+        <v>0.9879806526714909</v>
       </c>
       <c r="L23">
-        <v>0.9740907240640497</v>
+        <v>0.974090724064046</v>
       </c>
       <c r="M23">
-        <v>0.9813752167784837</v>
+        <v>0.9813752167784803</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,34 +1257,34 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9657652377959659</v>
+        <v>0.9657652377959711</v>
       </c>
       <c r="D24">
-        <v>0.989136564040785</v>
+        <v>0.9891365640407892</v>
       </c>
       <c r="E24">
-        <v>0.978165782092607</v>
+        <v>0.978165782092612</v>
       </c>
       <c r="F24">
-        <v>0.9851492916355004</v>
+        <v>0.9851492916355047</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.030640627054062</v>
+        <v>1.030640627054064</v>
       </c>
       <c r="J24">
-        <v>0.9946479371254964</v>
+        <v>0.9946479371255013</v>
       </c>
       <c r="K24">
-        <v>1.003357177937458</v>
+        <v>1.003357177937462</v>
       </c>
       <c r="L24">
-        <v>0.9925874965693208</v>
+        <v>0.9925874965693257</v>
       </c>
       <c r="M24">
-        <v>0.9994423200294854</v>
+        <v>0.9994423200294899</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1292,16 +1292,16 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9878875989611923</v>
+        <v>0.9878875989611928</v>
       </c>
       <c r="D25">
-        <v>1.006703238642546</v>
+        <v>1.006703238642547</v>
       </c>
       <c r="E25">
-        <v>0.9990945731556811</v>
+        <v>0.9990945731556821</v>
       </c>
       <c r="F25">
         <v>1.005619903491787</v>
@@ -1313,16 +1313,16 @@
         <v>1.039982275972845</v>
       </c>
       <c r="J25">
-        <v>1.012829584375706</v>
+        <v>1.012829584375707</v>
       </c>
       <c r="K25">
-        <v>1.019198379109273</v>
+        <v>1.019198379109274</v>
       </c>
       <c r="L25">
-        <v>1.011706960989085</v>
+        <v>1.011706960989086</v>
       </c>
       <c r="M25">
-        <v>1.018131599660518</v>
+        <v>1.018131599660519</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_13/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_13/res_bus/vm_pu.xlsx
@@ -421,13 +421,13 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.003871458061142</v>
+        <v>1.003871458061143</v>
       </c>
       <c r="D2">
         <v>1.019397390857654</v>
       </c>
       <c r="E2">
-        <v>1.014246687097304</v>
+        <v>1.014246687097305</v>
       </c>
       <c r="F2">
         <v>1.020452055353069</v>
@@ -436,7 +436,7 @@
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.046664034931105</v>
+        <v>1.046664034931106</v>
       </c>
       <c r="J2">
         <v>1.025936987879134</v>
@@ -462,13 +462,13 @@
         <v>1.01470119787227</v>
       </c>
       <c r="D3">
-        <v>1.027994787566283</v>
+        <v>1.027994787566284</v>
       </c>
       <c r="E3">
         <v>1.024527173735714</v>
       </c>
       <c r="F3">
-        <v>1.030520951601495</v>
+        <v>1.030520951601496</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -480,10 +480,10 @@
         <v>1.034798961347736</v>
       </c>
       <c r="K3">
-        <v>1.038281574511864</v>
+        <v>1.038281574511865</v>
       </c>
       <c r="L3">
-        <v>1.034855555882695</v>
+        <v>1.034855555882696</v>
       </c>
       <c r="M3">
         <v>1.040777654782652</v>
@@ -497,7 +497,7 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.021397890679143</v>
+        <v>1.021397890679144</v>
       </c>
       <c r="D4">
         <v>1.033308326560896</v>
@@ -524,7 +524,7 @@
         <v>1.040629331842227</v>
       </c>
       <c r="M4">
-        <v>1.046429161711662</v>
+        <v>1.046429161711661</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,16 +535,16 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.024144859333745</v>
+        <v>1.024144859333744</v>
       </c>
       <c r="D5">
-        <v>1.035487114591887</v>
+        <v>1.035487114591886</v>
       </c>
       <c r="E5">
-        <v>1.0335012210054</v>
+        <v>1.033501221005399</v>
       </c>
       <c r="F5">
-        <v>1.03931390118583</v>
+        <v>1.039313901185829</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -556,13 +556,13 @@
         <v>1.042511408722453</v>
       </c>
       <c r="K5">
-        <v>1.044960956578092</v>
+        <v>1.044960956578091</v>
       </c>
       <c r="L5">
-        <v>1.042996555935073</v>
+        <v>1.042996555935072</v>
       </c>
       <c r="M5">
-        <v>1.048746610356988</v>
+        <v>1.048746610356986</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,16 +573,16 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.024602243604557</v>
+        <v>1.024602243604556</v>
       </c>
       <c r="D6">
-        <v>1.035849841888092</v>
+        <v>1.035849841888091</v>
       </c>
       <c r="E6">
-        <v>1.033936081079399</v>
+        <v>1.033936081079398</v>
       </c>
       <c r="F6">
-        <v>1.039740070927943</v>
+        <v>1.039740070927942</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -591,16 +591,16 @@
         <v>1.055218204253798</v>
       </c>
       <c r="J6">
-        <v>1.04288453929325</v>
+        <v>1.042884539293249</v>
       </c>
       <c r="K6">
-        <v>1.045283796401972</v>
+        <v>1.045283796401971</v>
       </c>
       <c r="L6">
-        <v>1.043390639886565</v>
+        <v>1.043390639886564</v>
       </c>
       <c r="M6">
-        <v>1.049132427967816</v>
+        <v>1.049132427967815</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +611,34 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.02143485679752</v>
+        <v>1.021434856797521</v>
       </c>
       <c r="D7">
-        <v>1.033337650059443</v>
+        <v>1.033337650059444</v>
       </c>
       <c r="E7">
         <v>1.030925092523304</v>
       </c>
       <c r="F7">
-        <v>1.036789416138565</v>
+        <v>1.036789416138566</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.053920797158644</v>
+        <v>1.053920797158645</v>
       </c>
       <c r="J7">
-        <v>1.040299811196128</v>
+        <v>1.040299811196129</v>
       </c>
       <c r="K7">
-        <v>1.043046831203037</v>
+        <v>1.043046831203038</v>
       </c>
       <c r="L7">
         <v>1.040661192450249</v>
       </c>
       <c r="M7">
-        <v>1.046460351019891</v>
+        <v>1.046460351019892</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,16 +649,16 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.007599732903486</v>
+        <v>1.007599732903485</v>
       </c>
       <c r="D8">
-        <v>1.022357641066955</v>
+        <v>1.022357641066954</v>
       </c>
       <c r="E8">
-        <v>1.017784579505987</v>
+        <v>1.017784579505986</v>
       </c>
       <c r="F8">
-        <v>1.023916632983634</v>
+        <v>1.023916632983633</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -667,16 +667,16 @@
         <v>1.048212634068942</v>
       </c>
       <c r="J8">
-        <v>1.028989756632156</v>
+        <v>1.028989756632155</v>
       </c>
       <c r="K8">
-        <v>1.033243046309905</v>
+        <v>1.033243046309904</v>
       </c>
       <c r="L8">
-        <v>1.02872891782074</v>
+        <v>1.028728917820738</v>
       </c>
       <c r="M8">
-        <v>1.034782097832771</v>
+        <v>1.034782097832769</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +687,34 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9805122060450129</v>
+        <v>0.9805122060450149</v>
       </c>
       <c r="D9">
-        <v>1.000845621573493</v>
+        <v>1.000845621573495</v>
       </c>
       <c r="E9">
-        <v>0.9921115645343879</v>
+        <v>0.9921115645343899</v>
       </c>
       <c r="F9">
-        <v>0.9987876482294109</v>
+        <v>0.9987876482294125</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.036878624650958</v>
+        <v>1.036878624650959</v>
       </c>
       <c r="J9">
-        <v>1.006772407756367</v>
+        <v>1.006772407756369</v>
       </c>
       <c r="K9">
-        <v>1.013924994040203</v>
+        <v>1.013924994040205</v>
       </c>
       <c r="L9">
-        <v>1.005333935936818</v>
+        <v>1.00533393593682</v>
       </c>
       <c r="M9">
-        <v>1.011900425666892</v>
+        <v>1.011900425666894</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +725,34 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9600630961543791</v>
+        <v>0.960063096154379</v>
       </c>
       <c r="D10">
-        <v>0.9846110409330906</v>
+        <v>0.9846110409330904</v>
       </c>
       <c r="E10">
-        <v>0.9727794835138073</v>
+        <v>0.9727794835138071</v>
       </c>
       <c r="F10">
-        <v>0.9798840412956625</v>
+        <v>0.9798840412956623</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.028218560455275</v>
+        <v>1.028218560455274</v>
       </c>
       <c r="J10">
-        <v>0.9899560003159631</v>
+        <v>0.9899560003159629</v>
       </c>
       <c r="K10">
-        <v>0.9992638201187968</v>
+        <v>0.9992638201187966</v>
       </c>
       <c r="L10">
         <v>0.9876582428156232</v>
       </c>
       <c r="M10">
-        <v>0.9946262489196431</v>
+        <v>0.994626248919643</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +763,34 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9504681794047617</v>
+        <v>0.9504681794047606</v>
       </c>
       <c r="D11">
-        <v>0.9769995525185308</v>
+        <v>0.9769995525185297</v>
       </c>
       <c r="E11">
-        <v>0.9637238252701575</v>
+        <v>0.9637238252701561</v>
       </c>
       <c r="F11">
-        <v>0.9710348641181733</v>
+        <v>0.9710348641181721</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.024132170955181</v>
+        <v>1.02413217095518</v>
       </c>
       <c r="J11">
-        <v>0.9820572705231972</v>
+        <v>0.9820572705231962</v>
       </c>
       <c r="K11">
-        <v>0.9923686615212356</v>
+        <v>0.9923686615212348</v>
       </c>
       <c r="L11">
-        <v>0.9793638910427666</v>
+        <v>0.9793638910427652</v>
       </c>
       <c r="M11">
-        <v>0.9865245038745183</v>
+        <v>0.986524503874517</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,16 +801,16 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9467733492371635</v>
+        <v>0.9467733492371627</v>
       </c>
       <c r="D12">
-        <v>0.9740699095983458</v>
+        <v>0.9740699095983449</v>
       </c>
       <c r="E12">
-        <v>0.9602393026531514</v>
+        <v>0.9602393026531509</v>
       </c>
       <c r="F12">
-        <v>0.967630801613787</v>
+        <v>0.9676308016137859</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -819,16 +819,16 @@
         <v>1.022555315893471</v>
       </c>
       <c r="J12">
-        <v>0.9790146092507885</v>
+        <v>0.979014609250788</v>
       </c>
       <c r="K12">
-        <v>0.9897113407695196</v>
+        <v>0.9897113407695189</v>
       </c>
       <c r="L12">
-        <v>0.9761700681535583</v>
+        <v>0.9761700681535577</v>
       </c>
       <c r="M12">
-        <v>0.9834055778025735</v>
+        <v>0.9834055778025724</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,16 +839,16 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9475721972520127</v>
+        <v>0.9475721972520135</v>
       </c>
       <c r="D13">
-        <v>0.9747032460252871</v>
+        <v>0.9747032460252876</v>
       </c>
       <c r="E13">
-        <v>0.9609925545624234</v>
+        <v>0.9609925545624238</v>
       </c>
       <c r="F13">
-        <v>0.9683666123985741</v>
+        <v>0.9683666123985748</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -857,16 +857,16 @@
         <v>1.022896385936013</v>
       </c>
       <c r="J13">
-        <v>0.9796724942561807</v>
+        <v>0.9796724942561813</v>
       </c>
       <c r="K13">
-        <v>0.9902859619891625</v>
+        <v>0.9902859619891631</v>
       </c>
       <c r="L13">
-        <v>0.9768605811263125</v>
+        <v>0.9768605811263128</v>
       </c>
       <c r="M13">
-        <v>0.9840798630786847</v>
+        <v>0.9840798630786852</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +877,34 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9501655652877677</v>
+        <v>0.9501655652877696</v>
       </c>
       <c r="D14">
-        <v>0.9767595771048374</v>
+        <v>0.9767595771048387</v>
       </c>
       <c r="E14">
-        <v>0.9634383799231674</v>
+        <v>0.9634383799231689</v>
       </c>
       <c r="F14">
-        <v>0.9707559886522129</v>
+        <v>0.9707559886522144</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.024003087717421</v>
+        <v>1.024003087717422</v>
       </c>
       <c r="J14">
-        <v>0.9818080889279556</v>
+        <v>0.9818080889279573</v>
       </c>
       <c r="K14">
-        <v>0.992151062350818</v>
+        <v>0.9921510623508192</v>
       </c>
       <c r="L14">
-        <v>0.9791023047968849</v>
+        <v>0.9791023047968865</v>
       </c>
       <c r="M14">
-        <v>0.986269036549978</v>
+        <v>0.9862690365499794</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +915,34 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9517454097971882</v>
+        <v>0.9517454097971856</v>
       </c>
       <c r="D15">
-        <v>0.9780124664465986</v>
+        <v>0.9780124664465962</v>
       </c>
       <c r="E15">
-        <v>0.9649287014718363</v>
+        <v>0.964928701471834</v>
       </c>
       <c r="F15">
-        <v>0.9722120502018248</v>
+        <v>0.9722120502018224</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.02467685680406</v>
+        <v>1.024676856804059</v>
       </c>
       <c r="J15">
-        <v>0.9831089417568011</v>
+        <v>0.9831089417567986</v>
       </c>
       <c r="K15">
-        <v>0.9932869893734387</v>
+        <v>0.9932869893734365</v>
       </c>
       <c r="L15">
-        <v>0.9804679661852266</v>
+        <v>0.9804679661852242</v>
       </c>
       <c r="M15">
-        <v>0.9876027831098458</v>
+        <v>0.9876027831098435</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,16 +953,16 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9606827199341591</v>
+        <v>0.960682719934158</v>
       </c>
       <c r="D16">
-        <v>0.9851027388458985</v>
+        <v>0.9851027388458975</v>
       </c>
       <c r="E16">
-        <v>0.9733646203199947</v>
+        <v>0.9733646203199938</v>
       </c>
       <c r="F16">
-        <v>0.9804559648417408</v>
+        <v>0.9804559648417401</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -971,16 +971,16 @@
         <v>1.028481999251516</v>
       </c>
       <c r="J16">
-        <v>0.9904659368547175</v>
+        <v>0.9904659368547164</v>
       </c>
       <c r="K16">
-        <v>0.9997087940367503</v>
+        <v>0.9997087940367493</v>
       </c>
       <c r="L16">
-        <v>0.9881938858739167</v>
+        <v>0.9881938858739157</v>
       </c>
       <c r="M16">
-        <v>0.9951495469154072</v>
+        <v>0.9951495469154064</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,34 +991,34 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9660783103129794</v>
+        <v>0.9660783103129807</v>
       </c>
       <c r="D17">
-        <v>0.9893850735533221</v>
+        <v>0.9893850735533231</v>
       </c>
       <c r="E17">
-        <v>0.9784616122129305</v>
+        <v>0.9784616122129317</v>
       </c>
       <c r="F17">
-        <v>0.9854385111558435</v>
+        <v>0.9854385111558445</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.030773458600957</v>
+        <v>1.030773458600958</v>
       </c>
       <c r="J17">
-        <v>0.9949054904891094</v>
+        <v>0.9949054904891105</v>
       </c>
       <c r="K17">
-        <v>1.003581816427593</v>
+        <v>1.003581816427594</v>
       </c>
       <c r="L17">
-        <v>0.9928581290957895</v>
+        <v>0.9928581290957906</v>
       </c>
       <c r="M17">
-        <v>0.9997067658204746</v>
+        <v>0.9997067658204757</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1026,37 +1026,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9691555921024555</v>
+        <v>0.9691555921024578</v>
       </c>
       <c r="D18">
-        <v>0.9918279366233097</v>
+        <v>0.9918279366233118</v>
       </c>
       <c r="E18">
-        <v>0.9813699568861445</v>
+        <v>0.9813699568861469</v>
       </c>
       <c r="F18">
-        <v>0.988282073702438</v>
+        <v>0.9882820737024401</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.032078225210685</v>
+        <v>1.032078225210687</v>
       </c>
       <c r="J18">
-        <v>0.9974367315745319</v>
+        <v>0.9974367315745342</v>
       </c>
       <c r="K18">
-        <v>1.005789237417046</v>
+        <v>1.005789237417048</v>
       </c>
       <c r="L18">
-        <v>0.995518209259324</v>
+        <v>0.9955182092593263</v>
       </c>
       <c r="M18">
-        <v>1.002306186529737</v>
+        <v>1.002306186529739</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,34 +1067,34 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9701935305656527</v>
+        <v>0.9701935305656538</v>
       </c>
       <c r="D19">
-        <v>0.9926519646559806</v>
+        <v>0.9926519646559819</v>
       </c>
       <c r="E19">
-        <v>0.9823511362183055</v>
+        <v>0.9823511362183067</v>
       </c>
       <c r="F19">
-        <v>0.9892414824069774</v>
+        <v>0.9892414824069783</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.032517944955654</v>
+        <v>1.032517944955655</v>
       </c>
       <c r="J19">
-        <v>0.9982903568339274</v>
+        <v>0.9982903568339286</v>
       </c>
       <c r="K19">
-        <v>1.006533520014252</v>
+        <v>1.006533520014253</v>
       </c>
       <c r="L19">
-        <v>0.996415406733177</v>
+        <v>0.9964154067331784</v>
       </c>
       <c r="M19">
-        <v>1.003182986187092</v>
+        <v>1.003182986187093</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,34 +1105,34 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9655067678558069</v>
+        <v>0.96550676785581</v>
       </c>
       <c r="D20">
-        <v>0.9889313995780772</v>
+        <v>0.9889313995780804</v>
       </c>
       <c r="E20">
-        <v>0.9779215550407488</v>
+        <v>0.9779215550407522</v>
       </c>
       <c r="F20">
-        <v>0.9849105250105213</v>
+        <v>0.9849105250105245</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.030530950345958</v>
+        <v>1.03053095034596</v>
       </c>
       <c r="J20">
-        <v>0.9944352988316622</v>
+        <v>0.9944352988316654</v>
       </c>
       <c r="K20">
-        <v>1.003171709835129</v>
+        <v>1.003171709835132</v>
       </c>
       <c r="L20">
-        <v>0.9923640641627629</v>
+        <v>0.9923640641627658</v>
       </c>
       <c r="M20">
-        <v>0.9992239974896909</v>
+        <v>0.9992239974896939</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,16 +1143,16 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9494056792391895</v>
+        <v>0.9494056792391905</v>
       </c>
       <c r="D21">
-        <v>0.9761570058380202</v>
+        <v>0.9761570058380207</v>
       </c>
       <c r="E21">
-        <v>0.9627216497262072</v>
+        <v>0.962721649726208</v>
       </c>
       <c r="F21">
-        <v>0.9700557715755146</v>
+        <v>0.9700557715755157</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -1161,16 +1161,16 @@
         <v>1.023678898904322</v>
       </c>
       <c r="J21">
-        <v>0.9811823607366943</v>
+        <v>0.9811823607366951</v>
       </c>
       <c r="K21">
-        <v>0.9916046222000906</v>
+        <v>0.9916046222000913</v>
       </c>
       <c r="L21">
-        <v>0.9784454467805297</v>
+        <v>0.9784454467805306</v>
       </c>
       <c r="M21">
-        <v>0.9856275555920524</v>
+        <v>0.9856275555920534</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,34 +1181,34 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9385112199433936</v>
+        <v>0.9385112199433954</v>
       </c>
       <c r="D22">
-        <v>0.9675221479136388</v>
+        <v>0.9675221479136403</v>
       </c>
       <c r="E22">
-        <v>0.9524528802499674</v>
+        <v>0.9524528802499695</v>
       </c>
       <c r="F22">
-        <v>0.9600262380968532</v>
+        <v>0.9600262380968551</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.019023465203387</v>
+        <v>1.019023465203388</v>
       </c>
       <c r="J22">
-        <v>0.9722092910116651</v>
+        <v>0.9722092910116669</v>
       </c>
       <c r="K22">
-        <v>0.9837656717345878</v>
+        <v>0.9837656717345893</v>
       </c>
       <c r="L22">
-        <v>0.9690290012160214</v>
+        <v>0.9690290012160236</v>
       </c>
       <c r="M22">
-        <v>0.9764334698152981</v>
+        <v>0.9764334698152999</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,34 +1219,34 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9443677128357651</v>
+        <v>0.944367712835769</v>
       </c>
       <c r="D23">
-        <v>0.9721629448511975</v>
+        <v>0.9721629448512005</v>
       </c>
       <c r="E23">
-        <v>0.9579713961873421</v>
+        <v>0.9579713961873461</v>
       </c>
       <c r="F23">
-        <v>0.9654155680004188</v>
+        <v>0.9654155680004228</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.021527763889653</v>
+        <v>1.021527763889655</v>
       </c>
       <c r="J23">
-        <v>0.9770333422447038</v>
+        <v>0.9770333422447075</v>
       </c>
       <c r="K23">
-        <v>0.9879806526714909</v>
+        <v>0.987980652671494</v>
       </c>
       <c r="L23">
-        <v>0.974090724064046</v>
+        <v>0.9740907240640497</v>
       </c>
       <c r="M23">
-        <v>0.9813752167784803</v>
+        <v>0.9813752167784837</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,34 +1257,34 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9657652377959711</v>
+        <v>0.9657652377959659</v>
       </c>
       <c r="D24">
-        <v>0.9891365640407892</v>
+        <v>0.989136564040785</v>
       </c>
       <c r="E24">
-        <v>0.978165782092612</v>
+        <v>0.978165782092607</v>
       </c>
       <c r="F24">
-        <v>0.9851492916355047</v>
+        <v>0.9851492916355004</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.030640627054064</v>
+        <v>1.030640627054062</v>
       </c>
       <c r="J24">
-        <v>0.9946479371255013</v>
+        <v>0.9946479371254964</v>
       </c>
       <c r="K24">
-        <v>1.003357177937462</v>
+        <v>1.003357177937458</v>
       </c>
       <c r="L24">
-        <v>0.9925874965693257</v>
+        <v>0.9925874965693208</v>
       </c>
       <c r="M24">
-        <v>0.9994423200294899</v>
+        <v>0.9994423200294854</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1292,16 +1292,16 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C25">
-        <v>0.9878875989611928</v>
+        <v>0.9878875989611923</v>
       </c>
       <c r="D25">
-        <v>1.006703238642547</v>
+        <v>1.006703238642546</v>
       </c>
       <c r="E25">
-        <v>0.9990945731556821</v>
+        <v>0.9990945731556811</v>
       </c>
       <c r="F25">
         <v>1.005619903491787</v>
@@ -1313,16 +1313,16 @@
         <v>1.039982275972845</v>
       </c>
       <c r="J25">
-        <v>1.012829584375707</v>
+        <v>1.012829584375706</v>
       </c>
       <c r="K25">
-        <v>1.019198379109274</v>
+        <v>1.019198379109273</v>
       </c>
       <c r="L25">
-        <v>1.011706960989086</v>
+        <v>1.011706960989085</v>
       </c>
       <c r="M25">
-        <v>1.018131599660519</v>
+        <v>1.018131599660518</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_13/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_13/res_bus/vm_pu.xlsx
@@ -421,34 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.003871458061143</v>
+        <v>1.006927661901754</v>
       </c>
       <c r="D2">
-        <v>1.019397390857654</v>
+        <v>1.021795217455343</v>
       </c>
       <c r="E2">
-        <v>1.014246687097305</v>
+        <v>1.017248181654761</v>
       </c>
       <c r="F2">
-        <v>1.020452055353069</v>
+        <v>1.023114793550737</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.046664034931106</v>
+        <v>1.048080135717141</v>
       </c>
       <c r="J2">
-        <v>1.025936987879134</v>
+        <v>1.028903123875062</v>
       </c>
       <c r="K2">
-        <v>1.030592945014646</v>
+        <v>1.032959036628817</v>
       </c>
       <c r="L2">
-        <v>1.025511047840526</v>
+        <v>1.028472340022442</v>
       </c>
       <c r="M2">
-        <v>1.031633628085474</v>
+        <v>1.034261227830722</v>
+      </c>
+      <c r="N2">
+        <v>1.030364284327802</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.01470119787227</v>
+        <v>1.017723024990889</v>
       </c>
       <c r="D3">
-        <v>1.027994787566284</v>
+        <v>1.030367739983309</v>
       </c>
       <c r="E3">
-        <v>1.024527173735714</v>
+        <v>1.027498400794267</v>
       </c>
       <c r="F3">
-        <v>1.030520951601496</v>
+        <v>1.033152852468847</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.051150556531274</v>
+        <v>1.052553856434904</v>
       </c>
       <c r="J3">
-        <v>1.034798961347736</v>
+        <v>1.037741932054771</v>
       </c>
       <c r="K3">
-        <v>1.038281574511865</v>
+        <v>1.040626262534499</v>
       </c>
       <c r="L3">
-        <v>1.034855555882696</v>
+        <v>1.037791120712101</v>
       </c>
       <c r="M3">
-        <v>1.040777654782652</v>
+        <v>1.043378406472899</v>
+      </c>
+      <c r="N3">
+        <v>1.039215644628952</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.021397890679144</v>
+        <v>1.024400404723371</v>
       </c>
       <c r="D4">
-        <v>1.033308326560896</v>
+        <v>1.035667390867178</v>
       </c>
       <c r="E4">
-        <v>1.030889957476295</v>
+        <v>1.033844232950266</v>
       </c>
       <c r="F4">
-        <v>1.036754987351595</v>
+        <v>1.039369516702209</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.053905633231111</v>
+        <v>1.055301892967193</v>
       </c>
       <c r="J4">
-        <v>1.040269634354802</v>
+        <v>1.043199890424591</v>
       </c>
       <c r="K4">
-        <v>1.043020706229473</v>
+        <v>1.045353587179141</v>
       </c>
       <c r="L4">
-        <v>1.040629331842227</v>
+        <v>1.043550651668471</v>
       </c>
       <c r="M4">
-        <v>1.046429161711661</v>
+        <v>1.049014917320179</v>
+      </c>
+      <c r="N4">
+        <v>1.044681353925694</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.024144859333744</v>
+        <v>1.027139864073078</v>
       </c>
       <c r="D5">
-        <v>1.035487114591886</v>
+        <v>1.037840800594243</v>
       </c>
       <c r="E5">
-        <v>1.033501221005399</v>
+        <v>1.036448918038086</v>
       </c>
       <c r="F5">
-        <v>1.039313901185829</v>
+        <v>1.041921665685897</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.055031087158601</v>
+        <v>1.056424646805631</v>
       </c>
       <c r="J5">
-        <v>1.042511408722453</v>
+        <v>1.045436792546485</v>
       </c>
       <c r="K5">
-        <v>1.044960956578091</v>
+        <v>1.04728929961712</v>
       </c>
       <c r="L5">
-        <v>1.042996555935072</v>
+        <v>1.045912386901699</v>
       </c>
       <c r="M5">
-        <v>1.048746610356986</v>
+        <v>1.05132655680168</v>
+      </c>
+      <c r="N5">
+        <v>1.046921432705177</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.024602243604556</v>
+        <v>1.027596020919355</v>
       </c>
       <c r="D6">
-        <v>1.035849841888091</v>
+        <v>1.038202650097745</v>
       </c>
       <c r="E6">
-        <v>1.033936081079398</v>
+        <v>1.036882703591045</v>
       </c>
       <c r="F6">
-        <v>1.039740070927942</v>
+        <v>1.042346729089131</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.055218204253798</v>
+        <v>1.056611324797663</v>
       </c>
       <c r="J6">
-        <v>1.042884539293249</v>
+        <v>1.045809130954045</v>
       </c>
       <c r="K6">
-        <v>1.045283796401971</v>
+        <v>1.047611400859829</v>
       </c>
       <c r="L6">
-        <v>1.043390639886564</v>
+        <v>1.046305576629603</v>
       </c>
       <c r="M6">
-        <v>1.049132427967815</v>
+        <v>1.051711426182388</v>
+      </c>
+      <c r="N6">
+        <v>1.047294299875983</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.021434856797521</v>
+        <v>1.024437268213761</v>
       </c>
       <c r="D7">
-        <v>1.033337650059444</v>
+        <v>1.035696640772467</v>
       </c>
       <c r="E7">
-        <v>1.030925092523304</v>
+        <v>1.033879278039814</v>
       </c>
       <c r="F7">
-        <v>1.036789416138566</v>
+        <v>1.039403853076919</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.053920797158645</v>
+        <v>1.055317019840715</v>
       </c>
       <c r="J7">
-        <v>1.040299811196129</v>
+        <v>1.043230000388617</v>
       </c>
       <c r="K7">
-        <v>1.043046831203038</v>
+        <v>1.045379649918409</v>
       </c>
       <c r="L7">
-        <v>1.040661192450249</v>
+        <v>1.04358243705932</v>
       </c>
       <c r="M7">
-        <v>1.046460351019892</v>
+        <v>1.049046027147306</v>
+      </c>
+      <c r="N7">
+        <v>1.044711506649322</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.007599732903485</v>
+        <v>1.010643650824946</v>
       </c>
       <c r="D8">
-        <v>1.022357641066954</v>
+        <v>1.024746558833416</v>
       </c>
       <c r="E8">
-        <v>1.017784579505986</v>
+        <v>1.020775244678899</v>
       </c>
       <c r="F8">
-        <v>1.023916632983633</v>
+        <v>1.026568361443808</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.048212634068942</v>
+        <v>1.049624126054781</v>
       </c>
       <c r="J8">
-        <v>1.028989756632155</v>
+        <v>1.031947544934277</v>
       </c>
       <c r="K8">
-        <v>1.033243046309904</v>
+        <v>1.035601439371742</v>
       </c>
       <c r="L8">
-        <v>1.028728917820738</v>
+        <v>1.031680967559281</v>
       </c>
       <c r="M8">
-        <v>1.034782097832769</v>
+        <v>1.037400082882965</v>
+      </c>
+      <c r="N8">
+        <v>1.033413028814121</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9805122060450149</v>
+        <v>0.9836570874868149</v>
       </c>
       <c r="D9">
-        <v>1.000845621573495</v>
+        <v>1.003308167381587</v>
       </c>
       <c r="E9">
-        <v>0.9921115645343899</v>
+        <v>0.9951915114744406</v>
       </c>
       <c r="F9">
-        <v>0.9987876482294125</v>
+        <v>1.001529551140006</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.036878624650959</v>
+        <v>1.0383287657651</v>
       </c>
       <c r="J9">
-        <v>1.006772407756369</v>
+        <v>1.009800455710269</v>
       </c>
       <c r="K9">
-        <v>1.013924994040205</v>
+        <v>1.0163477989321</v>
       </c>
       <c r="L9">
-        <v>1.00533393593682</v>
+        <v>1.00836308779819</v>
       </c>
       <c r="M9">
-        <v>1.011900425666894</v>
+        <v>1.014597861093036</v>
+      </c>
+      <c r="N9">
+        <v>1.011234488183108</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.960063096154379</v>
+        <v>0.9633044572464868</v>
       </c>
       <c r="D10">
-        <v>0.9846110409330904</v>
+        <v>0.987144473985384</v>
       </c>
       <c r="E10">
-        <v>0.9727794835138071</v>
+        <v>0.9759451595647675</v>
       </c>
       <c r="F10">
-        <v>0.9798840412956623</v>
+        <v>0.9827116104672239</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.028218560455274</v>
+        <v>1.029706691654928</v>
       </c>
       <c r="J10">
-        <v>0.9899560003159629</v>
+        <v>0.9930536275865234</v>
       </c>
       <c r="K10">
-        <v>0.9992638201187966</v>
+        <v>1.00174978410803</v>
       </c>
       <c r="L10">
-        <v>0.9876582428156232</v>
+        <v>0.9907627520569187</v>
       </c>
       <c r="M10">
-        <v>0.994626248919643</v>
+        <v>0.9974001891845646</v>
+      </c>
+      <c r="N10">
+        <v>0.9944638776425392</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9504681794047606</v>
+        <v>0.9537619143616647</v>
       </c>
       <c r="D11">
-        <v>0.9769995525185297</v>
+        <v>0.9795715738355832</v>
       </c>
       <c r="E11">
-        <v>0.9637238252701561</v>
+        <v>0.966936142164798</v>
       </c>
       <c r="F11">
-        <v>0.9710348641181721</v>
+        <v>0.9739087815037317</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.02413217095518</v>
+        <v>1.025641173223034</v>
       </c>
       <c r="J11">
-        <v>0.9820572705231962</v>
+        <v>0.9851933086590006</v>
       </c>
       <c r="K11">
-        <v>0.9923686615212348</v>
+        <v>0.9948893044440755</v>
       </c>
       <c r="L11">
-        <v>0.9793638910427652</v>
+        <v>0.9825097441421946</v>
       </c>
       <c r="M11">
-        <v>0.986524503874517</v>
+        <v>0.9893401041853287</v>
+      </c>
+      <c r="N11">
+        <v>0.9865923961605482</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9467733492371627</v>
+        <v>0.9500886018068774</v>
       </c>
       <c r="D12">
-        <v>0.9740699095983449</v>
+        <v>0.9766577987562092</v>
       </c>
       <c r="E12">
-        <v>0.9602393026531509</v>
+        <v>0.9634707974764511</v>
       </c>
       <c r="F12">
-        <v>0.9676308016137859</v>
+        <v>0.9705237338428641</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.022555315893471</v>
+        <v>1.024072929807346</v>
       </c>
       <c r="J12">
-        <v>0.979014609250788</v>
+        <v>0.9821665301005801</v>
       </c>
       <c r="K12">
-        <v>0.9897113407695189</v>
+        <v>0.9922462912370805</v>
       </c>
       <c r="L12">
-        <v>0.9761700681535577</v>
+        <v>0.9793329761452825</v>
       </c>
       <c r="M12">
-        <v>0.9834055778025724</v>
+        <v>0.986238312301426</v>
+      </c>
+      <c r="N12">
+        <v>0.9835613192293987</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9475721972520135</v>
+        <v>0.9508827312351396</v>
       </c>
       <c r="D13">
-        <v>0.9747032460252876</v>
+        <v>0.9772876549473579</v>
       </c>
       <c r="E13">
-        <v>0.9609925545624238</v>
+        <v>0.9642198431646744</v>
       </c>
       <c r="F13">
-        <v>0.9683666123985748</v>
+        <v>0.9712553761509398</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.022896385936013</v>
+        <v>1.024412109771624</v>
       </c>
       <c r="J13">
-        <v>0.9796724942561813</v>
+        <v>0.9828209275598432</v>
       </c>
       <c r="K13">
-        <v>0.9902859619891631</v>
+        <v>0.9928177722827591</v>
       </c>
       <c r="L13">
-        <v>0.9768605811263128</v>
+        <v>0.9800197460287648</v>
       </c>
       <c r="M13">
-        <v>0.9840798630786852</v>
+        <v>0.9869088394354225</v>
+      </c>
+      <c r="N13">
+        <v>0.984216646008114</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9501655652877696</v>
+        <v>0.9534610334130589</v>
       </c>
       <c r="D14">
-        <v>0.9767595771048387</v>
+        <v>0.9793328762583339</v>
       </c>
       <c r="E14">
-        <v>0.9634383799231689</v>
+        <v>0.9666522412219138</v>
       </c>
       <c r="F14">
-        <v>0.9707559886522144</v>
+        <v>0.9736314381766776</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.024003087717422</v>
+        <v>1.025512782898758</v>
       </c>
       <c r="J14">
-        <v>0.9818080889279573</v>
+        <v>0.9849454043182467</v>
       </c>
       <c r="K14">
-        <v>0.9921510623508192</v>
+        <v>0.9946728565110432</v>
       </c>
       <c r="L14">
-        <v>0.9791023047968865</v>
+        <v>0.9822495302275414</v>
       </c>
       <c r="M14">
-        <v>0.9862690365499794</v>
+        <v>0.9890860166058328</v>
+      </c>
+      <c r="N14">
+        <v>0.9863441397671955</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9517454097971856</v>
+        <v>0.9550318860018026</v>
       </c>
       <c r="D15">
-        <v>0.9780124664465962</v>
+        <v>0.9805791365415897</v>
       </c>
       <c r="E15">
-        <v>0.964928701471834</v>
+        <v>0.9681345508035395</v>
       </c>
       <c r="F15">
-        <v>0.9722120502018224</v>
+        <v>0.9750795496844235</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.024676856804059</v>
+        <v>1.026182958497585</v>
       </c>
       <c r="J15">
-        <v>0.9831089417567986</v>
+        <v>0.9862396346029385</v>
       </c>
       <c r="K15">
-        <v>0.9932869893734365</v>
+        <v>0.9958028131073492</v>
       </c>
       <c r="L15">
-        <v>0.9804679661852242</v>
+        <v>0.9836080744967328</v>
       </c>
       <c r="M15">
-        <v>0.9876027831098435</v>
+        <v>0.9904126055666855</v>
+      </c>
+      <c r="N15">
+        <v>0.987640208007342</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,37 +995,40 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.960682719934158</v>
+        <v>0.9639208647677675</v>
       </c>
       <c r="D16">
-        <v>0.9851027388458975</v>
+        <v>0.9876338041061723</v>
       </c>
       <c r="E16">
-        <v>0.9733646203199938</v>
+        <v>0.9765274341675327</v>
       </c>
       <c r="F16">
-        <v>0.9804559648417401</v>
+        <v>0.983280684529386</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.028481999251516</v>
+        <v>1.02996885348681</v>
       </c>
       <c r="J16">
-        <v>0.9904659368547164</v>
+        <v>0.9935612180041258</v>
       </c>
       <c r="K16">
-        <v>0.9997087940367493</v>
+        <v>1.002192635994164</v>
       </c>
       <c r="L16">
-        <v>0.9881938858739157</v>
+        <v>0.9912958648138428</v>
       </c>
       <c r="M16">
-        <v>0.9951495469154064</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0.9979209312502196</v>
+      </c>
+      <c r="N16">
+        <v>0.994972188896756</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -991,37 +1036,40 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9660783103129807</v>
+        <v>0.9692892569780945</v>
       </c>
       <c r="D17">
-        <v>0.9893850735533231</v>
+        <v>0.9918961264263729</v>
       </c>
       <c r="E17">
-        <v>0.9784616122129317</v>
+        <v>0.981600232492871</v>
       </c>
       <c r="F17">
-        <v>0.9854385111558445</v>
+        <v>0.9882391180573329</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.030773458600958</v>
+        <v>1.032249539530463</v>
       </c>
       <c r="J17">
-        <v>0.9949054904891105</v>
+        <v>0.9979809976300317</v>
       </c>
       <c r="K17">
-        <v>1.003581816427594</v>
+        <v>1.006047753721554</v>
       </c>
       <c r="L17">
-        <v>0.9928581290957906</v>
+        <v>0.9959387555114819</v>
       </c>
       <c r="M17">
-        <v>0.9997067658204757</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>1.00245654915206</v>
+      </c>
+      <c r="N17">
+        <v>0.9993982451166865</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1029,37 +1077,40 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9691555921024578</v>
+        <v>0.9723516578213601</v>
       </c>
       <c r="D18">
-        <v>0.9918279366233118</v>
+        <v>0.9943280492471762</v>
       </c>
       <c r="E18">
-        <v>0.9813699568861469</v>
+        <v>0.9844953487614162</v>
       </c>
       <c r="F18">
-        <v>0.9882820737024401</v>
+        <v>0.9910694749314896</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.032078225210687</v>
+        <v>1.033548432606484</v>
       </c>
       <c r="J18">
-        <v>0.9974367315745342</v>
+        <v>1.000501473147994</v>
       </c>
       <c r="K18">
-        <v>1.005789237417048</v>
+        <v>1.008245411493583</v>
       </c>
       <c r="L18">
-        <v>0.9955182092593263</v>
+        <v>0.998587189490006</v>
       </c>
       <c r="M18">
-        <v>1.002306186529739</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>1.005044162243316</v>
+      </c>
+      <c r="N18">
+        <v>1.001922299998988</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1067,37 +1118,40 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9701935305656538</v>
+        <v>0.9733846774178783</v>
       </c>
       <c r="D19">
-        <v>0.9926519646559819</v>
+        <v>0.9951484626024947</v>
       </c>
       <c r="E19">
-        <v>0.9823511362183067</v>
+        <v>0.9854721569284747</v>
       </c>
       <c r="F19">
-        <v>0.9892414824069783</v>
+        <v>0.9920245164373901</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.032517944955655</v>
+        <v>1.033986214420347</v>
       </c>
       <c r="J19">
-        <v>0.9982903568339286</v>
+        <v>1.001351548798694</v>
       </c>
       <c r="K19">
-        <v>1.006533520014253</v>
+        <v>1.008986472455808</v>
       </c>
       <c r="L19">
-        <v>0.9964154067331784</v>
+        <v>0.9994805434425518</v>
       </c>
       <c r="M19">
-        <v>1.003182986187093</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>1.005917060800713</v>
+      </c>
+      <c r="N19">
+        <v>1.002773582854616</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1105,37 +1159,40 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.96550676785581</v>
+        <v>0.9687205280612001</v>
       </c>
       <c r="D20">
-        <v>0.9889313995780804</v>
+        <v>0.9914445216954384</v>
       </c>
       <c r="E20">
-        <v>0.9779215550407522</v>
+        <v>0.9810626771304667</v>
       </c>
       <c r="F20">
-        <v>0.9849105250105245</v>
+        <v>0.9877136276638052</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.03053095034596</v>
+        <v>1.032008143521487</v>
       </c>
       <c r="J20">
-        <v>0.9944352988316654</v>
+        <v>0.9975128458218963</v>
       </c>
       <c r="K20">
-        <v>1.003171709835132</v>
+        <v>1.005639495795505</v>
       </c>
       <c r="L20">
-        <v>0.9923640641627658</v>
+        <v>0.9954468955296235</v>
       </c>
       <c r="M20">
-        <v>0.9992239974896939</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>1.001976014203788</v>
+      </c>
+      <c r="N20">
+        <v>0.998929428479286</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1143,37 +1200,40 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9494056792391905</v>
+        <v>0.9527055222078697</v>
       </c>
       <c r="D21">
-        <v>0.9761570058380207</v>
+        <v>0.978733530703755</v>
       </c>
       <c r="E21">
-        <v>0.962721649726208</v>
+        <v>0.9659394096396856</v>
       </c>
       <c r="F21">
-        <v>0.9700557715755157</v>
+        <v>0.9729350880655162</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.023678898904322</v>
+        <v>1.025190343708383</v>
       </c>
       <c r="J21">
-        <v>0.9811823607366951</v>
+        <v>0.9843229017803509</v>
       </c>
       <c r="K21">
-        <v>0.9916046222000913</v>
+        <v>0.9941293232450832</v>
       </c>
       <c r="L21">
-        <v>0.9784454467805306</v>
+        <v>0.9815961373309749</v>
       </c>
       <c r="M21">
-        <v>0.9856275555920534</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0.9884480186681645</v>
+      </c>
+      <c r="N21">
+        <v>0.9857207532042938</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1181,37 +1241,40 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9385112199433954</v>
+        <v>0.9418775140911774</v>
       </c>
       <c r="D22">
-        <v>0.9675221479136403</v>
+        <v>0.9701477008542048</v>
       </c>
       <c r="E22">
-        <v>0.9524528802499695</v>
+        <v>0.9557298970300881</v>
       </c>
       <c r="F22">
-        <v>0.9600262380968551</v>
+        <v>0.9629642178303857</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.019023465203388</v>
+        <v>1.020561576843444</v>
       </c>
       <c r="J22">
-        <v>0.9722092910116669</v>
+        <v>0.9753990896718666</v>
       </c>
       <c r="K22">
-        <v>0.9837656717345893</v>
+        <v>0.9863346767022578</v>
       </c>
       <c r="L22">
-        <v>0.9690290012160236</v>
+        <v>0.9722325015048379</v>
       </c>
       <c r="M22">
-        <v>0.9764334698152999</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0.9793068815570953</v>
+      </c>
+      <c r="N22">
+        <v>0.97678426825904</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1219,37 +1282,40 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.944367712835769</v>
+        <v>0.9476974006589656</v>
       </c>
       <c r="D23">
-        <v>0.9721629448512005</v>
+        <v>0.9747614827262269</v>
       </c>
       <c r="E23">
-        <v>0.9579713961873461</v>
+        <v>0.9612157611420106</v>
       </c>
       <c r="F23">
-        <v>0.9654155680004228</v>
+        <v>0.9683212482309738</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.021527763889655</v>
+        <v>1.023051165379048</v>
       </c>
       <c r="J23">
-        <v>0.9770333422447075</v>
+        <v>0.9801959477735801</v>
       </c>
       <c r="K23">
-        <v>0.987980652671494</v>
+        <v>0.9905252185314083</v>
       </c>
       <c r="L23">
-        <v>0.9740907240640497</v>
+        <v>0.9772650934701984</v>
       </c>
       <c r="M23">
-        <v>0.9813752167784837</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0.9842194508954772</v>
+      </c>
+      <c r="N23">
+        <v>0.9815879384494655</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1257,72 +1323,78 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9657652377959659</v>
+        <v>0.9689777236784193</v>
       </c>
       <c r="D24">
-        <v>0.989136564040785</v>
+        <v>0.9916487489163771</v>
       </c>
       <c r="E24">
-        <v>0.978165782092607</v>
+        <v>0.9813057710225646</v>
       </c>
       <c r="F24">
-        <v>0.9851492916355004</v>
+        <v>0.9879512639407033</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.030640627054062</v>
+        <v>1.032117316399211</v>
       </c>
       <c r="J24">
-        <v>0.9946479371254964</v>
+        <v>0.9977245600477304</v>
       </c>
       <c r="K24">
-        <v>1.003357177937458</v>
+        <v>1.005824126485873</v>
       </c>
       <c r="L24">
-        <v>0.9925874965693208</v>
+        <v>0.995669329143105</v>
       </c>
       <c r="M24">
-        <v>0.9994423200294854</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>1.00219332515382</v>
+      </c>
+      <c r="N24">
+        <v>0.9991414433636049</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9878875989611923</v>
+        <v>0.9910021911037264</v>
       </c>
       <c r="D25">
-        <v>1.006703238642546</v>
+        <v>1.00914361351278</v>
       </c>
       <c r="E25">
-        <v>0.9990945731556811</v>
+        <v>1.002147675902978</v>
       </c>
       <c r="F25">
-        <v>1.005619903491787</v>
+        <v>1.008334819791862</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.039982275972845</v>
+        <v>1.041420665369815</v>
       </c>
       <c r="J25">
-        <v>1.012829584375706</v>
+        <v>1.015836208636005</v>
       </c>
       <c r="K25">
-        <v>1.019198379109273</v>
+        <v>1.02160162572821</v>
       </c>
       <c r="L25">
-        <v>1.011706960989085</v>
+        <v>1.014712743206095</v>
       </c>
       <c r="M25">
-        <v>1.018131599660518</v>
+        <v>1.020805111745008</v>
+      </c>
+      <c r="N25">
+        <v>1.01727881257031</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_13/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_13/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.006927661901754</v>
+        <v>1.015155702423217</v>
       </c>
       <c r="D2">
-        <v>1.021795217455343</v>
+        <v>1.033375479575906</v>
       </c>
       <c r="E2">
-        <v>1.017248181654761</v>
+        <v>1.023232467164369</v>
       </c>
       <c r="F2">
-        <v>1.023114793550737</v>
+        <v>1.037574138976145</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.048080135717141</v>
+        <v>1.048984532239415</v>
       </c>
       <c r="J2">
-        <v>1.028903123875062</v>
+        <v>1.036892369105915</v>
       </c>
       <c r="K2">
-        <v>1.032959036628817</v>
+        <v>1.044388627593629</v>
       </c>
       <c r="L2">
-        <v>1.028472340022442</v>
+        <v>1.034377353870969</v>
       </c>
       <c r="M2">
-        <v>1.034261227830722</v>
+        <v>1.048533695704204</v>
       </c>
       <c r="N2">
-        <v>1.030364284327802</v>
+        <v>1.038364875203262</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.017723024990889</v>
+        <v>1.023033310017499</v>
       </c>
       <c r="D3">
-        <v>1.030367739983309</v>
+        <v>1.039577895578333</v>
       </c>
       <c r="E3">
-        <v>1.027498400794267</v>
+        <v>1.03060441475912</v>
       </c>
       <c r="F3">
-        <v>1.033152852468847</v>
+        <v>1.044329432973352</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.052553856434904</v>
+        <v>1.051591109950204</v>
       </c>
       <c r="J3">
-        <v>1.037741932054771</v>
+        <v>1.042915168099583</v>
       </c>
       <c r="K3">
-        <v>1.040626262534499</v>
+        <v>1.049728226782783</v>
       </c>
       <c r="L3">
-        <v>1.037791120712101</v>
+        <v>1.040860127107101</v>
       </c>
       <c r="M3">
-        <v>1.043378406472899</v>
+        <v>1.054424869563888</v>
       </c>
       <c r="N3">
-        <v>1.039215644628952</v>
+        <v>1.044396227262326</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.024400404723371</v>
+        <v>1.027973756711359</v>
       </c>
       <c r="D4">
-        <v>1.035667390867178</v>
+        <v>1.043470271021516</v>
       </c>
       <c r="E4">
-        <v>1.033844232950266</v>
+        <v>1.035233446432391</v>
       </c>
       <c r="F4">
-        <v>1.039369516702209</v>
+        <v>1.048571744092534</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.055301892967193</v>
+        <v>1.053213481218882</v>
       </c>
       <c r="J4">
-        <v>1.043199890424591</v>
+        <v>1.046687984421727</v>
       </c>
       <c r="K4">
-        <v>1.045353587179141</v>
+        <v>1.05307089791609</v>
       </c>
       <c r="L4">
-        <v>1.043550651668471</v>
+        <v>1.044924448099091</v>
       </c>
       <c r="M4">
-        <v>1.049014917320179</v>
+        <v>1.058117270089566</v>
       </c>
       <c r="N4">
-        <v>1.044681353925694</v>
+        <v>1.048174401416396</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.027139864073078</v>
+        <v>1.030015349377916</v>
       </c>
       <c r="D5">
-        <v>1.037840800594243</v>
+        <v>1.045079248604773</v>
       </c>
       <c r="E5">
-        <v>1.036448918038086</v>
+        <v>1.037147647472298</v>
       </c>
       <c r="F5">
-        <v>1.041921665685897</v>
+        <v>1.050326094361258</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.056424646805631</v>
+        <v>1.053880880289141</v>
       </c>
       <c r="J5">
-        <v>1.045436792546485</v>
+        <v>1.048245944248265</v>
       </c>
       <c r="K5">
-        <v>1.04728929961712</v>
+        <v>1.054450683822964</v>
       </c>
       <c r="L5">
-        <v>1.045912386901699</v>
+        <v>1.046603595273455</v>
       </c>
       <c r="M5">
-        <v>1.05132655680168</v>
+        <v>1.05964248049168</v>
       </c>
       <c r="N5">
-        <v>1.046921432705177</v>
+        <v>1.049734573724588</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.027596020919355</v>
+        <v>1.030356127692583</v>
       </c>
       <c r="D6">
-        <v>1.038202650097745</v>
+        <v>1.045347841360508</v>
       </c>
       <c r="E6">
-        <v>1.036882703591045</v>
+        <v>1.037467236171838</v>
       </c>
       <c r="F6">
-        <v>1.042346729089131</v>
+        <v>1.050618997363524</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.056611324797663</v>
+        <v>1.053992100970568</v>
       </c>
       <c r="J6">
-        <v>1.045809130954045</v>
+        <v>1.048505927780959</v>
       </c>
       <c r="K6">
-        <v>1.047611400859829</v>
+        <v>1.054680901696454</v>
       </c>
       <c r="L6">
-        <v>1.046305576629603</v>
+        <v>1.046883849791593</v>
       </c>
       <c r="M6">
-        <v>1.051711426182388</v>
+        <v>1.059897025053493</v>
       </c>
       <c r="N6">
-        <v>1.047294299875983</v>
+        <v>1.049994926463719</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.024437268213761</v>
+        <v>1.028001172804537</v>
       </c>
       <c r="D7">
-        <v>1.035696640772467</v>
+        <v>1.043491875828569</v>
       </c>
       <c r="E7">
-        <v>1.033879278039814</v>
+        <v>1.035259146766012</v>
       </c>
       <c r="F7">
-        <v>1.039403853076919</v>
+        <v>1.048595298050601</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.055317019840715</v>
+        <v>1.053222455656956</v>
       </c>
       <c r="J7">
-        <v>1.043230000388617</v>
+        <v>1.046708910440765</v>
       </c>
       <c r="K7">
-        <v>1.045379649918409</v>
+        <v>1.053089432965466</v>
       </c>
       <c r="L7">
-        <v>1.04358243705932</v>
+        <v>1.044946998644451</v>
       </c>
       <c r="M7">
-        <v>1.049046027147306</v>
+        <v>1.058137754455331</v>
       </c>
       <c r="N7">
-        <v>1.044711506649322</v>
+        <v>1.04819535715278</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.010643650824946</v>
+        <v>1.017851843310224</v>
       </c>
       <c r="D8">
-        <v>1.024746558833416</v>
+        <v>1.035497672117346</v>
       </c>
       <c r="E8">
-        <v>1.020775244678899</v>
+        <v>1.025754291432429</v>
       </c>
       <c r="F8">
-        <v>1.026568361443808</v>
+        <v>1.039884879073308</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.049624126054781</v>
+        <v>1.049879207663944</v>
       </c>
       <c r="J8">
-        <v>1.031947544934277</v>
+        <v>1.038954577520319</v>
       </c>
       <c r="K8">
-        <v>1.035601439371742</v>
+        <v>1.046217350624772</v>
       </c>
       <c r="L8">
-        <v>1.031680967559281</v>
+        <v>1.036596348787207</v>
       </c>
       <c r="M8">
-        <v>1.037400082882965</v>
+        <v>1.050550385046851</v>
       </c>
       <c r="N8">
-        <v>1.033413028814121</v>
+        <v>1.040430012190153</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9836570874868149</v>
+        <v>0.9986560183385097</v>
       </c>
       <c r="D9">
-        <v>1.003308167381587</v>
+        <v>1.020404543805212</v>
       </c>
       <c r="E9">
-        <v>0.9951915114744406</v>
+        <v>1.007827710600665</v>
       </c>
       <c r="F9">
-        <v>1.001529551140006</v>
+        <v>1.023463338794953</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.0383287657651</v>
+        <v>1.043458906901297</v>
       </c>
       <c r="J9">
-        <v>1.009800455710269</v>
+        <v>1.024256325491815</v>
       </c>
       <c r="K9">
-        <v>1.0163477989321</v>
+        <v>1.033175024035546</v>
       </c>
       <c r="L9">
-        <v>1.00836308779819</v>
+        <v>1.02079505256449</v>
       </c>
       <c r="M9">
-        <v>1.014597861093036</v>
+        <v>1.036186873581769</v>
       </c>
       <c r="N9">
-        <v>1.011234488183108</v>
+        <v>1.025710886957856</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9633044572464868</v>
+        <v>0.9848024296724139</v>
       </c>
       <c r="D10">
-        <v>0.987144473985384</v>
+        <v>1.009539711318231</v>
       </c>
       <c r="E10">
-        <v>0.9759451595647675</v>
+        <v>0.9949306767257989</v>
       </c>
       <c r="F10">
-        <v>0.9827116104672239</v>
+        <v>1.011657981864171</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.029706691654928</v>
+        <v>1.038764438018161</v>
       </c>
       <c r="J10">
-        <v>0.9930536275865234</v>
+        <v>1.013632269410556</v>
       </c>
       <c r="K10">
-        <v>1.00174978410803</v>
+        <v>1.023738833379051</v>
       </c>
       <c r="L10">
-        <v>0.9907627520569187</v>
+        <v>1.009392066585989</v>
       </c>
       <c r="M10">
-        <v>0.9974001891845646</v>
+        <v>1.025819890446642</v>
       </c>
       <c r="N10">
-        <v>0.9944638776425392</v>
+        <v>1.015071743498365</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9537619143616647</v>
+        <v>0.9785066060340361</v>
       </c>
       <c r="D11">
-        <v>0.9795715738355832</v>
+        <v>1.004611282745756</v>
       </c>
       <c r="E11">
-        <v>0.966936142164798</v>
+        <v>0.9890808240908701</v>
       </c>
       <c r="F11">
-        <v>0.9739087815037317</v>
+        <v>1.006306540895477</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.025641173223034</v>
+        <v>1.03661790137382</v>
       </c>
       <c r="J11">
-        <v>0.9851933086590006</v>
+        <v>1.008801701253862</v>
       </c>
       <c r="K11">
-        <v>0.9948893044440755</v>
+        <v>1.019446757841899</v>
       </c>
       <c r="L11">
-        <v>0.9825097441421946</v>
+        <v>1.00421164029514</v>
       </c>
       <c r="M11">
-        <v>0.9893401041853287</v>
+        <v>1.021110497095043</v>
       </c>
       <c r="N11">
-        <v>0.9865923961605482</v>
+        <v>1.010234315380814</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9500886018068774</v>
+        <v>0.9761187598392204</v>
       </c>
       <c r="D12">
-        <v>0.9766577987562092</v>
+        <v>1.002743674512357</v>
       </c>
       <c r="E12">
-        <v>0.9634707974764511</v>
+        <v>0.9868639743897717</v>
       </c>
       <c r="F12">
-        <v>0.9705237338428641</v>
+        <v>1.004279167348334</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.024072929807346</v>
+        <v>1.035801937008583</v>
       </c>
       <c r="J12">
-        <v>0.9821665301005801</v>
+        <v>1.006969369650353</v>
       </c>
       <c r="K12">
-        <v>0.9922462912370805</v>
+        <v>1.017818498149731</v>
       </c>
       <c r="L12">
-        <v>0.9793329761452825</v>
+        <v>1.002247242588555</v>
       </c>
       <c r="M12">
-        <v>0.986238312301426</v>
+        <v>1.01932484190854</v>
       </c>
       <c r="N12">
-        <v>0.9835613192293987</v>
+        <v>1.008399381656257</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9508827312351396</v>
+        <v>0.976633273967055</v>
       </c>
       <c r="D13">
-        <v>0.9772876549473579</v>
+        <v>1.003146014548384</v>
       </c>
       <c r="E13">
-        <v>0.9642198431646744</v>
+        <v>0.987341557271011</v>
       </c>
       <c r="F13">
-        <v>0.9712553761509398</v>
+        <v>1.004715901829415</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.024412109771624</v>
+        <v>1.035977835128287</v>
       </c>
       <c r="J13">
-        <v>0.9828209275598432</v>
+        <v>1.00736419331306</v>
       </c>
       <c r="K13">
-        <v>0.9928177722827591</v>
+        <v>1.01816935682054</v>
       </c>
       <c r="L13">
-        <v>0.9800197460287648</v>
+        <v>1.002670494453187</v>
       </c>
       <c r="M13">
-        <v>0.9869088394354225</v>
+        <v>1.019709574595334</v>
       </c>
       <c r="N13">
-        <v>0.984216646008114</v>
+        <v>1.008794766013852</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9534610334130589</v>
+        <v>0.978310260918421</v>
       </c>
       <c r="D14">
-        <v>0.9793328762583339</v>
+        <v>1.004457680825563</v>
       </c>
       <c r="E14">
-        <v>0.9666522412219138</v>
+        <v>0.9888985009870922</v>
       </c>
       <c r="F14">
-        <v>0.9736314381766776</v>
+        <v>1.006139788284231</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.025512782898758</v>
+        <v>1.03655084359374</v>
       </c>
       <c r="J14">
-        <v>0.9849454043182467</v>
+        <v>1.008651037922835</v>
       </c>
       <c r="K14">
-        <v>0.9946728565110432</v>
+        <v>1.019312877818582</v>
       </c>
       <c r="L14">
-        <v>0.9822495302275414</v>
+        <v>1.004050104856959</v>
       </c>
       <c r="M14">
-        <v>0.9890860166058328</v>
+        <v>1.020963656872323</v>
       </c>
       <c r="N14">
-        <v>0.9863441397671955</v>
+        <v>1.010083438090576</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C15">
-        <v>0.9550318860018026</v>
+        <v>0.9793368247855022</v>
       </c>
       <c r="D15">
-        <v>0.9805791365415897</v>
+        <v>1.005260834988441</v>
       </c>
       <c r="E15">
-        <v>0.9681345508035395</v>
+        <v>0.9898518288215682</v>
       </c>
       <c r="F15">
-        <v>0.9750795496844235</v>
+        <v>1.007011726426741</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.026182958497585</v>
+        <v>1.036901372339504</v>
       </c>
       <c r="J15">
-        <v>0.9862396346029385</v>
+        <v>1.009438752743356</v>
       </c>
       <c r="K15">
-        <v>0.9958028131073492</v>
+        <v>1.020012836925362</v>
       </c>
       <c r="L15">
-        <v>0.9836080744967328</v>
+        <v>1.004894688482437</v>
       </c>
       <c r="M15">
-        <v>0.9904126055666855</v>
+        <v>1.02173141264385</v>
       </c>
       <c r="N15">
-        <v>0.987640208007342</v>
+        <v>1.010872271556495</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9639208647677675</v>
+        <v>0.9852136201453391</v>
       </c>
       <c r="D16">
-        <v>0.9876338041061723</v>
+        <v>1.009861803802786</v>
       </c>
       <c r="E16">
-        <v>0.9765274341675327</v>
+        <v>0.99531298561322</v>
       </c>
       <c r="F16">
-        <v>0.983280684529386</v>
+        <v>1.012007793896907</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.02996885348681</v>
+        <v>1.038904371690148</v>
       </c>
       <c r="J16">
-        <v>0.9935612180041258</v>
+        <v>1.013947723336413</v>
       </c>
       <c r="K16">
-        <v>1.002192635994164</v>
+        <v>1.024019092790673</v>
       </c>
       <c r="L16">
-        <v>0.9912958648138428</v>
+        <v>1.009730456090375</v>
       </c>
       <c r="M16">
-        <v>0.9979209312502196</v>
+        <v>1.026127525299233</v>
       </c>
       <c r="N16">
-        <v>0.994972188896756</v>
+        <v>1.01538764540498</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C17">
-        <v>0.9692892569780945</v>
+        <v>0.9888173446875742</v>
       </c>
       <c r="D17">
-        <v>0.9918961264263729</v>
+        <v>1.012685717967533</v>
       </c>
       <c r="E17">
-        <v>0.981600232492871</v>
+        <v>0.9986648729545675</v>
       </c>
       <c r="F17">
-        <v>0.9882391180573329</v>
+        <v>1.015075143372334</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.032249539530463</v>
+        <v>1.040129305776661</v>
       </c>
       <c r="J17">
-        <v>0.9979809976300317</v>
+        <v>1.016712143806277</v>
       </c>
       <c r="K17">
-        <v>1.006047753721554</v>
+        <v>1.026474917461191</v>
       </c>
       <c r="L17">
-        <v>0.9959387555114819</v>
+        <v>1.01269635235127</v>
       </c>
       <c r="M17">
-        <v>1.00245654915206</v>
+        <v>1.028823914730727</v>
       </c>
       <c r="N17">
-        <v>0.9993982451166865</v>
+        <v>1.018155991668995</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9723516578213601</v>
+        <v>0.9908910152701776</v>
       </c>
       <c r="D18">
-        <v>0.9943280492471762</v>
+        <v>1.0143115060714</v>
       </c>
       <c r="E18">
-        <v>0.9844953487614162</v>
+        <v>1.000594674284195</v>
       </c>
       <c r="F18">
-        <v>0.9910694749314896</v>
+        <v>1.016841422908566</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.033548432606484</v>
+        <v>1.040832924269383</v>
       </c>
       <c r="J18">
-        <v>1.000501473147994</v>
+        <v>1.018302621548551</v>
       </c>
       <c r="K18">
-        <v>1.008245411493583</v>
+        <v>1.027887693761806</v>
       </c>
       <c r="L18">
-        <v>0.998587189490006</v>
+        <v>1.01440315076454</v>
       </c>
       <c r="M18">
-        <v>1.005044162243316</v>
+        <v>1.030375648549454</v>
       </c>
       <c r="N18">
-        <v>1.001922299998988</v>
+        <v>1.019748728072093</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9733846774178783</v>
+        <v>0.9915934104097955</v>
       </c>
       <c r="D19">
-        <v>0.9951484626024947</v>
+        <v>1.014862329744511</v>
       </c>
       <c r="E19">
-        <v>0.9854721569284747</v>
+        <v>1.001248510646609</v>
       </c>
       <c r="F19">
-        <v>0.9920245164373901</v>
+        <v>1.017439903714561</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.033986214420347</v>
+        <v>1.041071040686744</v>
       </c>
       <c r="J19">
-        <v>1.001351548798694</v>
+        <v>1.018841305133981</v>
       </c>
       <c r="K19">
-        <v>1.008986472455808</v>
+        <v>1.028366163485725</v>
       </c>
       <c r="L19">
-        <v>0.9994805434425518</v>
+        <v>1.014981299992915</v>
       </c>
       <c r="M19">
-        <v>1.005917060800713</v>
+        <v>1.030901275305286</v>
       </c>
       <c r="N19">
-        <v>1.002773582854616</v>
+        <v>1.020288176650002</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9687205280612001</v>
+        <v>0.9884336600544597</v>
       </c>
       <c r="D20">
-        <v>0.9914445216954384</v>
+        <v>1.012384969985277</v>
       </c>
       <c r="E20">
-        <v>0.9810626771304667</v>
+        <v>0.9983078915463647</v>
       </c>
       <c r="F20">
-        <v>0.9877136276638052</v>
+        <v>1.014748434109936</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.032008143521487</v>
+        <v>1.039999016242108</v>
       </c>
       <c r="J20">
-        <v>0.9975128458218963</v>
+        <v>1.016417842639468</v>
       </c>
       <c r="K20">
-        <v>1.005639495795505</v>
+        <v>1.026213485211599</v>
       </c>
       <c r="L20">
-        <v>0.9954468955296235</v>
+        <v>1.012380560040444</v>
       </c>
       <c r="M20">
-        <v>1.001976014203788</v>
+        <v>1.028536814442505</v>
       </c>
       <c r="N20">
-        <v>0.998929428479286</v>
+        <v>1.017861272560772</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9527055222078697</v>
+        <v>0.9778178317068569</v>
       </c>
       <c r="D21">
-        <v>0.978733530703755</v>
+        <v>1.004072477524494</v>
       </c>
       <c r="E21">
-        <v>0.9659394096396856</v>
+        <v>0.9884412689957192</v>
       </c>
       <c r="F21">
-        <v>0.9729350880655162</v>
+        <v>1.005721614184754</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.025190343708383</v>
+        <v>1.036382635112922</v>
       </c>
       <c r="J21">
-        <v>0.9843229017803509</v>
+        <v>1.008273174609457</v>
       </c>
       <c r="K21">
-        <v>0.9941293232450832</v>
+        <v>1.018977104154492</v>
       </c>
       <c r="L21">
-        <v>0.9815961373309749</v>
+        <v>1.003644984623693</v>
       </c>
       <c r="M21">
-        <v>0.9884480186681645</v>
+        <v>1.020595393601473</v>
       </c>
       <c r="N21">
-        <v>0.9857207532042938</v>
+        <v>1.009705038167952</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9418775140911774</v>
+        <v>0.9708551908436488</v>
       </c>
       <c r="D22">
-        <v>0.9701477008542048</v>
+        <v>0.9986301666292878</v>
       </c>
       <c r="E22">
-        <v>0.9557298970300881</v>
+        <v>0.9819809491047421</v>
       </c>
       <c r="F22">
-        <v>0.9629642178303857</v>
+        <v>0.9998147403480945</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.020561576843444</v>
+        <v>1.034000061829103</v>
       </c>
       <c r="J22">
-        <v>0.9753990896718666</v>
+        <v>1.002930101505222</v>
       </c>
       <c r="K22">
-        <v>0.9863346767022578</v>
+        <v>1.01422880911668</v>
       </c>
       <c r="L22">
-        <v>0.9722325015048379</v>
+        <v>0.997918022411903</v>
       </c>
       <c r="M22">
-        <v>0.9793068815570953</v>
+        <v>1.015389868161927</v>
       </c>
       <c r="N22">
-        <v>0.97678426825904</v>
+        <v>1.00435437728705</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9476974006589656</v>
+        <v>0.974575262680057</v>
       </c>
       <c r="D23">
-        <v>0.9747614827262269</v>
+        <v>1.001536947914379</v>
       </c>
       <c r="E23">
-        <v>0.9612157611420106</v>
+        <v>0.9854315524968947</v>
       </c>
       <c r="F23">
-        <v>0.9683212482309738</v>
+        <v>1.002969359870957</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.023051165379048</v>
+        <v>1.035273999879261</v>
       </c>
       <c r="J23">
-        <v>0.9801959477735801</v>
+        <v>1.005784913301898</v>
       </c>
       <c r="K23">
-        <v>0.9905252185314083</v>
+        <v>1.016765911808383</v>
       </c>
       <c r="L23">
-        <v>0.9772650934701984</v>
+        <v>1.000977596419672</v>
       </c>
       <c r="M23">
-        <v>0.9842194508954772</v>
+        <v>1.018170768283866</v>
       </c>
       <c r="N23">
-        <v>0.9815879384494655</v>
+        <v>1.007213243243929</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9689777236784193</v>
+        <v>0.9886071178005456</v>
       </c>
       <c r="D24">
-        <v>0.9916487489163771</v>
+        <v>1.012520930794324</v>
       </c>
       <c r="E24">
-        <v>0.9813057710225646</v>
+        <v>0.9984692739543327</v>
       </c>
       <c r="F24">
-        <v>0.9879512639407033</v>
+        <v>1.014896130320167</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.032117316399211</v>
+        <v>1.040057921935525</v>
       </c>
       <c r="J24">
-        <v>0.9977245600477304</v>
+        <v>1.01655089228278</v>
       </c>
       <c r="K24">
-        <v>1.005824126485873</v>
+        <v>1.026331675738233</v>
       </c>
       <c r="L24">
-        <v>0.995669329143105</v>
+        <v>1.012523324288466</v>
       </c>
       <c r="M24">
-        <v>1.00219332515382</v>
+        <v>1.028666607435536</v>
       </c>
       <c r="N24">
-        <v>0.9991414433636049</v>
+        <v>1.017994511149839</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9910021911037264</v>
+        <v>1.003790677900165</v>
       </c>
       <c r="D25">
-        <v>1.00914361351278</v>
+        <v>1.024437796974154</v>
       </c>
       <c r="E25">
-        <v>1.002147675902978</v>
+        <v>1.012616460981943</v>
       </c>
       <c r="F25">
-        <v>1.008334819791862</v>
+        <v>1.027848867000003</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.041420665369815</v>
+        <v>1.045187004550606</v>
       </c>
       <c r="J25">
-        <v>1.015836208636005</v>
+        <v>1.028191140597076</v>
       </c>
       <c r="K25">
-        <v>1.02160162572821</v>
+        <v>1.036668232835943</v>
       </c>
       <c r="L25">
-        <v>1.014712743206095</v>
+        <v>1.025022029546752</v>
       </c>
       <c r="M25">
-        <v>1.020805111745008</v>
+        <v>1.040029717342075</v>
       </c>
       <c r="N25">
-        <v>1.01727881257031</v>
+        <v>1.029651289951896</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_13/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_13/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,197 +412,1289 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
+      <c r="B2">
+        <v>1.05</v>
+      </c>
+      <c r="C2">
+        <v>1.012562381609058</v>
+      </c>
+      <c r="D2">
+        <v>1.032891714604833</v>
+      </c>
+      <c r="E2">
+        <v>1.020655542652674</v>
+      </c>
+      <c r="F2">
+        <v>1.038626742660683</v>
+      </c>
       <c r="G2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:14">
+      <c r="I2">
+        <v>1.049321475682621</v>
+      </c>
+      <c r="J2">
+        <v>1.034373738083345</v>
+      </c>
+      <c r="K2">
+        <v>1.043911072348853</v>
+      </c>
+      <c r="L2">
+        <v>1.031834421976375</v>
+      </c>
+      <c r="M2">
+        <v>1.049572948858465</v>
+      </c>
+      <c r="N2">
+        <v>1.015268285972495</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.047806017872674</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.042119212820134</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
+      <c r="B3">
+        <v>1.05</v>
+      </c>
+      <c r="C3">
+        <v>1.015895201122238</v>
+      </c>
+      <c r="D3">
+        <v>1.035080115213022</v>
+      </c>
+      <c r="E3">
+        <v>1.0235034057846</v>
+      </c>
+      <c r="F3">
+        <v>1.040945919494164</v>
+      </c>
       <c r="G3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:14">
+      <c r="I3">
+        <v>1.050053176551095</v>
+      </c>
+      <c r="J3">
+        <v>1.035961730375528</v>
+      </c>
+      <c r="K3">
+        <v>1.045282983958847</v>
+      </c>
+      <c r="L3">
+        <v>1.033844135278001</v>
+      </c>
+      <c r="M3">
+        <v>1.051080382408284</v>
+      </c>
+      <c r="N3">
+        <v>1.015808500328896</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.04899903756337</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.043086610978441</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
+      <c r="B4">
+        <v>1.05</v>
+      </c>
+      <c r="C4">
+        <v>1.018018259894021</v>
+      </c>
+      <c r="D4">
+        <v>1.036478601389178</v>
+      </c>
+      <c r="E4">
+        <v>1.025322909381991</v>
+      </c>
+      <c r="F4">
+        <v>1.042429572723175</v>
+      </c>
       <c r="G4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:14">
+      <c r="I4">
+        <v>1.050512591503619</v>
+      </c>
+      <c r="J4">
+        <v>1.036972023105627</v>
+      </c>
+      <c r="K4">
+        <v>1.046155827894192</v>
+      </c>
+      <c r="L4">
+        <v>1.035125021681905</v>
+      </c>
+      <c r="M4">
+        <v>1.052041521452449</v>
+      </c>
+      <c r="N4">
+        <v>1.016152130932918</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.049759705453349</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.043704671123302</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
+      <c r="B5">
+        <v>1.05</v>
+      </c>
+      <c r="C5">
+        <v>1.018905733388433</v>
+      </c>
+      <c r="D5">
+        <v>1.037066133008721</v>
+      </c>
+      <c r="E5">
+        <v>1.026085137306897</v>
+      </c>
+      <c r="F5">
+        <v>1.043051959866419</v>
+      </c>
       <c r="G5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:14">
+      <c r="I5">
+        <v>1.05070438345449</v>
+      </c>
+      <c r="J5">
+        <v>1.037395389446558</v>
+      </c>
+      <c r="K5">
+        <v>1.046522957584433</v>
+      </c>
+      <c r="L5">
+        <v>1.035661638823722</v>
+      </c>
+      <c r="M5">
+        <v>1.052444846565678</v>
+      </c>
+      <c r="N5">
+        <v>1.016296363841841</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.050078906137549</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.043971392144866</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
+      <c r="B6">
+        <v>1.05</v>
+      </c>
+      <c r="C6">
+        <v>1.01905763906472</v>
+      </c>
+      <c r="D6">
+        <v>1.037169071322649</v>
+      </c>
+      <c r="E6">
+        <v>1.026216136979786</v>
+      </c>
+      <c r="F6">
+        <v>1.043159443823092</v>
+      </c>
       <c r="G6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:14">
+      <c r="I6">
+        <v>1.050738796447057</v>
+      </c>
+      <c r="J6">
+        <v>1.037469508257951</v>
+      </c>
+      <c r="K6">
+        <v>1.046588876736182</v>
+      </c>
+      <c r="L6">
+        <v>1.035754770017204</v>
+      </c>
+      <c r="M6">
+        <v>1.052515551558576</v>
+      </c>
+      <c r="N6">
+        <v>1.016321916707067</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.050134863665841</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.044026699836187</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
+      <c r="B7">
+        <v>1.05</v>
+      </c>
+      <c r="C7">
+        <v>1.018039157228616</v>
+      </c>
+      <c r="D7">
+        <v>1.036498619849542</v>
+      </c>
+      <c r="E7">
+        <v>1.025342082191392</v>
+      </c>
+      <c r="F7">
+        <v>1.042446536324328</v>
+      </c>
       <c r="G7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:14">
+      <c r="I7">
+        <v>1.050521628518775</v>
+      </c>
+      <c r="J7">
+        <v>1.036986484852374</v>
+      </c>
+      <c r="K7">
+        <v>1.046172764733735</v>
+      </c>
+      <c r="L7">
+        <v>1.035141074860717</v>
+      </c>
+      <c r="M7">
+        <v>1.05205546149322</v>
+      </c>
+      <c r="N7">
+        <v>1.016157882221773</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.049770737921512</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.043736651895447</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
+      <c r="B8">
+        <v>1.05</v>
+      </c>
+      <c r="C8">
+        <v>1.013707080315762</v>
+      </c>
+      <c r="D8">
+        <v>1.033650065763376</v>
+      </c>
+      <c r="E8">
+        <v>1.021634115398355</v>
+      </c>
+      <c r="F8">
+        <v>1.039424842995319</v>
+      </c>
       <c r="G8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:14">
+      <c r="I8">
+        <v>1.049579750620874</v>
+      </c>
+      <c r="J8">
+        <v>1.034925005634115</v>
+      </c>
+      <c r="K8">
+        <v>1.04439272967784</v>
+      </c>
+      <c r="L8">
+        <v>1.032528800794915</v>
+      </c>
+      <c r="M8">
+        <v>1.050096002718653</v>
+      </c>
+      <c r="N8">
+        <v>1.015456909254812</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.048219975676853</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.04248257352971</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
+      <c r="B9">
+        <v>1.05</v>
+      </c>
+      <c r="C9">
+        <v>1.005792487421011</v>
+      </c>
+      <c r="D9">
+        <v>1.028472479036628</v>
+      </c>
+      <c r="E9">
+        <v>1.014901203363822</v>
+      </c>
+      <c r="F9">
+        <v>1.033951882116611</v>
+      </c>
       <c r="G9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:14">
+      <c r="I9">
+        <v>1.047800150670597</v>
+      </c>
+      <c r="J9">
+        <v>1.031142343217662</v>
+      </c>
+      <c r="K9">
+        <v>1.041119903258537</v>
+      </c>
+      <c r="L9">
+        <v>1.027757058211493</v>
+      </c>
+      <c r="M9">
+        <v>1.046517124556695</v>
+      </c>
+      <c r="N9">
+        <v>1.014168901901335</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.04538755805319</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.0401653331735</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
+      <c r="B10">
+        <v>1.05</v>
+      </c>
+      <c r="C10">
+        <v>1.000368608099081</v>
+      </c>
+      <c r="D10">
+        <v>1.024974070452378</v>
+      </c>
+      <c r="E10">
+        <v>1.010324579211975</v>
+      </c>
+      <c r="F10">
+        <v>1.030311347238441</v>
+      </c>
       <c r="G10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:14">
+      <c r="I10">
+        <v>1.046569494389484</v>
+      </c>
+      <c r="J10">
+        <v>1.028567608933667</v>
+      </c>
+      <c r="K10">
+        <v>1.038906590306693</v>
+      </c>
+      <c r="L10">
+        <v>1.024509889238247</v>
+      </c>
+      <c r="M10">
+        <v>1.044154069898909</v>
+      </c>
+      <c r="N10">
+        <v>1.013296194507489</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.043568491537829</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.038617135372005</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
+      <c r="B11">
+        <v>1.05</v>
+      </c>
+      <c r="C11">
+        <v>0.9983279443068066</v>
+      </c>
+      <c r="D11">
+        <v>1.023840292391508</v>
+      </c>
+      <c r="E11">
+        <v>1.0086619677374</v>
+      </c>
+      <c r="F11">
+        <v>1.029530799784212</v>
+      </c>
       <c r="G11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:14">
+      <c r="I11">
+        <v>1.046267826073017</v>
+      </c>
+      <c r="J11">
+        <v>1.027770448566597</v>
+      </c>
+      <c r="K11">
+        <v>1.03832619766734</v>
+      </c>
+      <c r="L11">
+        <v>1.023422360119298</v>
+      </c>
+      <c r="M11">
+        <v>1.043916498994446</v>
+      </c>
+      <c r="N11">
+        <v>1.013059902567304</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.043814020129557</v>
+      </c>
+      <c r="Q11">
+        <v>1.019999999999999</v>
+      </c>
+      <c r="R11">
+        <v>1.03823947827045</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
+      <c r="B12">
+        <v>1.05</v>
+      </c>
+      <c r="C12">
+        <v>0.9976865596476858</v>
+      </c>
+      <c r="D12">
+        <v>1.023552581757847</v>
+      </c>
+      <c r="E12">
+        <v>1.008161760579296</v>
+      </c>
+      <c r="F12">
+        <v>1.029527891505903</v>
+      </c>
       <c r="G12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:14">
+      <c r="I12">
+        <v>1.04623951525328</v>
+      </c>
+      <c r="J12">
+        <v>1.027589152163759</v>
+      </c>
+      <c r="K12">
+        <v>1.038242047099828</v>
+      </c>
+      <c r="L12">
+        <v>1.023134247016647</v>
+      </c>
+      <c r="M12">
+        <v>1.04411043614106</v>
+      </c>
+      <c r="N12">
+        <v>1.013025551597775</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.044291955183057</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.03817998158665</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
+      <c r="B13">
+        <v>1.05</v>
+      </c>
+      <c r="C13">
+        <v>0.9980911279574336</v>
+      </c>
+      <c r="D13">
+        <v>1.023912879988905</v>
+      </c>
+      <c r="E13">
+        <v>1.008532787345538</v>
+      </c>
+      <c r="F13">
+        <v>1.030145425117547</v>
+      </c>
       <c r="G13">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:14">
+      <c r="I13">
+        <v>1.046432487958331</v>
+      </c>
+      <c r="J13">
+        <v>1.027883577517628</v>
+      </c>
+      <c r="K13">
+        <v>1.038553306305666</v>
+      </c>
+      <c r="L13">
+        <v>1.02345482712752</v>
+      </c>
+      <c r="M13">
+        <v>1.044674836950778</v>
+      </c>
+      <c r="N13">
+        <v>1.01315012479357</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.045013473708797</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.038397568649155</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
+      <c r="B14">
+        <v>1.05</v>
+      </c>
+      <c r="C14">
+        <v>0.9988493036515826</v>
+      </c>
+      <c r="D14">
+        <v>1.024459946985203</v>
+      </c>
+      <c r="E14">
+        <v>1.009188283560154</v>
+      </c>
+      <c r="F14">
+        <v>1.030858958923974</v>
+      </c>
       <c r="G14">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:14">
+      <c r="I14">
+        <v>1.046668028482044</v>
+      </c>
+      <c r="J14">
+        <v>1.028305754012041</v>
+      </c>
+      <c r="K14">
+        <v>1.038951254638526</v>
+      </c>
+      <c r="L14">
+        <v>1.023955722291208</v>
+      </c>
+      <c r="M14">
+        <v>1.04523771408764</v>
+      </c>
+      <c r="N14">
+        <v>1.013309634223522</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.045630957607934</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.038680346951498</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
+      <c r="B15">
+        <v>1.05</v>
+      </c>
+      <c r="C15">
+        <v>0.9992659831604618</v>
+      </c>
+      <c r="D15">
+        <v>1.024742037495607</v>
+      </c>
+      <c r="E15">
+        <v>1.009542617492449</v>
+      </c>
+      <c r="F15">
+        <v>1.031182504293384</v>
+      </c>
       <c r="G15">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:14">
+      <c r="I15">
+        <v>1.046778161441591</v>
+      </c>
+      <c r="J15">
+        <v>1.028518056070124</v>
+      </c>
+      <c r="K15">
+        <v>1.039142544395766</v>
+      </c>
+      <c r="L15">
+        <v>1.024215849709772</v>
+      </c>
+      <c r="M15">
+        <v>1.045470586779387</v>
+      </c>
+      <c r="N15">
+        <v>1.013385378636319</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.045852401361939</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.038821437921052</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
+      <c r="B16">
+        <v>1.05</v>
+      </c>
+      <c r="C16">
+        <v>1.001481643461232</v>
+      </c>
+      <c r="D16">
+        <v>1.02615780664877</v>
+      </c>
+      <c r="E16">
+        <v>1.011402447717412</v>
+      </c>
+      <c r="F16">
+        <v>1.032635300892001</v>
+      </c>
       <c r="G16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:7">
+      <c r="I16">
+        <v>1.047277074134027</v>
+      </c>
+      <c r="J16">
+        <v>1.029560001994123</v>
+      </c>
+      <c r="K16">
+        <v>1.040034966914825</v>
+      </c>
+      <c r="L16">
+        <v>1.025532752553153</v>
+      </c>
+      <c r="M16">
+        <v>1.046404274213943</v>
+      </c>
+      <c r="N16">
+        <v>1.013734060554128</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.046551833755591</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.039455560422016</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
+      <c r="B17">
+        <v>1.05</v>
+      </c>
+      <c r="C17">
+        <v>1.002786775601455</v>
+      </c>
+      <c r="D17">
+        <v>1.026959212221726</v>
+      </c>
+      <c r="E17">
+        <v>1.012489234148901</v>
+      </c>
+      <c r="F17">
+        <v>1.033372467903903</v>
+      </c>
       <c r="G17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="I17">
+        <v>1.047534578030517</v>
+      </c>
+      <c r="J17">
+        <v>1.030138281761512</v>
+      </c>
+      <c r="K17">
+        <v>1.040510502727229</v>
+      </c>
+      <c r="L17">
+        <v>1.0262817690321</v>
+      </c>
+      <c r="M17">
+        <v>1.046819609091706</v>
+      </c>
+      <c r="N17">
+        <v>1.013917920052969</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.046751661553667</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.039794356288817</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
+      <c r="B18">
+        <v>1.05</v>
+      </c>
+      <c r="C18">
+        <v>1.003420649280143</v>
+      </c>
+      <c r="D18">
+        <v>1.027284380140012</v>
+      </c>
+      <c r="E18">
+        <v>1.012998374160491</v>
+      </c>
+      <c r="F18">
+        <v>1.03351673717006</v>
+      </c>
       <c r="G18">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="I18">
+        <v>1.047596349054129</v>
+      </c>
+      <c r="J18">
+        <v>1.030355048564989</v>
+      </c>
+      <c r="K18">
+        <v>1.040648202245033</v>
+      </c>
+      <c r="L18">
+        <v>1.026596448356605</v>
+      </c>
+      <c r="M18">
+        <v>1.046780964261113</v>
+      </c>
+      <c r="N18">
+        <v>1.013970407641436</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.046484607510437</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.039880132448775</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
+      <c r="B19">
+        <v>1.05</v>
+      </c>
+      <c r="C19">
+        <v>1.003455144910996</v>
+      </c>
+      <c r="D19">
+        <v>1.027190418788953</v>
+      </c>
+      <c r="E19">
+        <v>1.01299231163916</v>
+      </c>
+      <c r="F19">
+        <v>1.033126664453077</v>
+      </c>
       <c r="G19">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="I19">
+        <v>1.0474895297725</v>
+      </c>
+      <c r="J19">
+        <v>1.030254385605613</v>
+      </c>
+      <c r="K19">
+        <v>1.040493635777971</v>
+      </c>
+      <c r="L19">
+        <v>1.026527125634416</v>
+      </c>
+      <c r="M19">
+        <v>1.046335466575182</v>
+      </c>
+      <c r="N19">
+        <v>1.01391060332419</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.045808675673408</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.039777215138945</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
+      <c r="B20">
+        <v>1.05</v>
+      </c>
+      <c r="C20">
+        <v>1.001796133263352</v>
+      </c>
+      <c r="D20">
+        <v>1.025909255638771</v>
+      </c>
+      <c r="E20">
+        <v>1.011530502326766</v>
+      </c>
+      <c r="F20">
+        <v>1.031276568566596</v>
+      </c>
       <c r="G20">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:7">
+      <c r="I20">
+        <v>1.046907921297678</v>
+      </c>
+      <c r="J20">
+        <v>1.029257992135898</v>
+      </c>
+      <c r="K20">
+        <v>1.039511323847951</v>
+      </c>
+      <c r="L20">
+        <v>1.025373587222938</v>
+      </c>
+      <c r="M20">
+        <v>1.044790882484789</v>
+      </c>
+      <c r="N20">
+        <v>1.013532824638222</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.044061973681343</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.039086591052481</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
+      <c r="B21">
+        <v>1.05</v>
+      </c>
+      <c r="C21">
+        <v>0.9976650021415304</v>
+      </c>
+      <c r="D21">
+        <v>1.023217775117575</v>
+      </c>
+      <c r="E21">
+        <v>1.008045392270162</v>
+      </c>
+      <c r="F21">
+        <v>1.02840284627469</v>
+      </c>
       <c r="G21">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:7">
+      <c r="I21">
+        <v>1.045925367010322</v>
+      </c>
+      <c r="J21">
+        <v>1.027260674095456</v>
+      </c>
+      <c r="K21">
+        <v>1.037772237681193</v>
+      </c>
+      <c r="L21">
+        <v>1.022875928668428</v>
+      </c>
+      <c r="M21">
+        <v>1.042865383380546</v>
+      </c>
+      <c r="N21">
+        <v>1.012849446156438</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.042497463466297</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.037860212264672</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
+      <c r="B22">
+        <v>1.05</v>
+      </c>
+      <c r="C22">
+        <v>0.9950345550441161</v>
+      </c>
+      <c r="D22">
+        <v>1.021514950527351</v>
+      </c>
+      <c r="E22">
+        <v>1.005835084208751</v>
+      </c>
+      <c r="F22">
+        <v>1.026615854604758</v>
+      </c>
       <c r="G22">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="I22">
+        <v>1.045299115724541</v>
+      </c>
+      <c r="J22">
+        <v>1.025994244134417</v>
+      </c>
+      <c r="K22">
+        <v>1.03667191065807</v>
+      </c>
+      <c r="L22">
+        <v>1.021291826479144</v>
+      </c>
+      <c r="M22">
+        <v>1.041677864318653</v>
+      </c>
+      <c r="N22">
+        <v>1.012417005158882</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.04155762373569</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.037068786653515</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
+      <c r="B23">
+        <v>1.05</v>
+      </c>
+      <c r="C23">
+        <v>0.9964248073299233</v>
+      </c>
+      <c r="D23">
+        <v>1.022408840809292</v>
+      </c>
+      <c r="E23">
+        <v>1.00700134562498</v>
+      </c>
+      <c r="F23">
+        <v>1.027557378548683</v>
+      </c>
       <c r="G23">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="I23">
+        <v>1.045626737097716</v>
+      </c>
+      <c r="J23">
+        <v>1.026659544896446</v>
+      </c>
+      <c r="K23">
+        <v>1.037246226804189</v>
+      </c>
+      <c r="L23">
+        <v>1.022125740626799</v>
+      </c>
+      <c r="M23">
+        <v>1.042301351943725</v>
+      </c>
+      <c r="N23">
+        <v>1.012643276785696</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.042051071496509</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.037465253496929</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
+      <c r="B24">
+        <v>1.05</v>
+      </c>
+      <c r="C24">
+        <v>1.001816691151083</v>
+      </c>
+      <c r="D24">
+        <v>1.02589707904088</v>
+      </c>
+      <c r="E24">
+        <v>1.01154094690428</v>
+      </c>
+      <c r="F24">
+        <v>1.031229709447707</v>
+      </c>
       <c r="G24">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:7">
+      <c r="I24">
+        <v>1.046890361893712</v>
+      </c>
+      <c r="J24">
+        <v>1.029244987938094</v>
+      </c>
+      <c r="K24">
+        <v>1.039484179888084</v>
+      </c>
+      <c r="L24">
+        <v>1.025368377129334</v>
+      </c>
+      <c r="M24">
+        <v>1.044729728134535</v>
+      </c>
+      <c r="N24">
+        <v>1.013524062948541</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.043972961767774</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.039040111705462</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
+      <c r="B25">
+        <v>1.05</v>
+      </c>
+      <c r="C25">
+        <v>1.00788613493229</v>
+      </c>
+      <c r="D25">
+        <v>1.029847209637442</v>
+      </c>
+      <c r="E25">
+        <v>1.016679051161895</v>
+      </c>
+      <c r="F25">
+        <v>1.035397038936306</v>
+      </c>
       <c r="G25">
         <v>1</v>
+      </c>
+      <c r="I25">
+        <v>1.048283787163434</v>
+      </c>
+      <c r="J25">
+        <v>1.032150982958117</v>
+      </c>
+      <c r="K25">
+        <v>1.041999204081174</v>
+      </c>
+      <c r="L25">
+        <v>1.029023848565237</v>
+      </c>
+      <c r="M25">
+        <v>1.04746963332136</v>
+      </c>
+      <c r="N25">
+        <v>1.014513819693012</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.046141399423206</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.04081549927763</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_13/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_13/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.012562381609058</v>
+        <v>1.011924059105239</v>
       </c>
       <c r="D2">
-        <v>1.032891714604833</v>
+        <v>1.031685041875627</v>
       </c>
       <c r="E2">
-        <v>1.020655542652674</v>
+        <v>1.02002128723445</v>
       </c>
       <c r="F2">
-        <v>1.038626742660683</v>
+        <v>1.037821797585774</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.049321475682621</v>
+        <v>1.048797965547623</v>
       </c>
       <c r="J2">
-        <v>1.034373738083345</v>
+        <v>1.033753880276937</v>
       </c>
       <c r="K2">
-        <v>1.043911072348853</v>
+        <v>1.042719920509082</v>
       </c>
       <c r="L2">
-        <v>1.031834421976375</v>
+        <v>1.031208566169714</v>
       </c>
       <c r="M2">
-        <v>1.049572948858465</v>
+        <v>1.048778210133543</v>
       </c>
       <c r="N2">
-        <v>1.015268285972495</v>
+        <v>1.016085758505245</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.047806017872674</v>
+        <v>1.047177041481574</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.042119212820134</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.041285706904852</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.023367338289785</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.015895201122238</v>
+        <v>1.015149247203174</v>
       </c>
       <c r="D3">
-        <v>1.035080115213022</v>
+        <v>1.033733996258974</v>
       </c>
       <c r="E3">
-        <v>1.0235034057846</v>
+        <v>1.022761406081868</v>
       </c>
       <c r="F3">
-        <v>1.040945919494164</v>
+        <v>1.040041839995909</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.050053176551095</v>
+        <v>1.04945805841477</v>
       </c>
       <c r="J3">
-        <v>1.035961730375528</v>
+        <v>1.035235278371209</v>
       </c>
       <c r="K3">
-        <v>1.045282983958847</v>
+        <v>1.043952698757161</v>
       </c>
       <c r="L3">
-        <v>1.033844135278001</v>
+        <v>1.033111103788556</v>
       </c>
       <c r="M3">
-        <v>1.051080382408284</v>
+        <v>1.050186783929966</v>
       </c>
       <c r="N3">
-        <v>1.015808500328896</v>
+        <v>1.016485722796477</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.04899903756337</v>
+        <v>1.048291822156614</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.043086610978441</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.042154452419314</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.02360160156627</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.018018259894021</v>
+        <v>1.017204404433471</v>
       </c>
       <c r="D4">
-        <v>1.036478601389178</v>
+        <v>1.035044043447539</v>
       </c>
       <c r="E4">
-        <v>1.025322909381991</v>
+        <v>1.024512833601462</v>
       </c>
       <c r="F4">
-        <v>1.042429572723175</v>
+        <v>1.041462731774263</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.050512591503619</v>
+        <v>1.049872048771529</v>
       </c>
       <c r="J4">
-        <v>1.036972023105627</v>
+        <v>1.036178028485786</v>
       </c>
       <c r="K4">
-        <v>1.046155827894192</v>
+        <v>1.044737144052423</v>
       </c>
       <c r="L4">
-        <v>1.035125021681905</v>
+        <v>1.034324145129152</v>
       </c>
       <c r="M4">
-        <v>1.052041521452449</v>
+        <v>1.051085223727249</v>
       </c>
       <c r="N4">
-        <v>1.016152130932918</v>
+        <v>1.016740258867469</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.049759705453349</v>
+        <v>1.049002869098231</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.043704671123302</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.042710090948541</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.023748440242937</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.018905733388433</v>
+        <v>1.018063643083399</v>
       </c>
       <c r="D5">
-        <v>1.037066133008721</v>
+        <v>1.035594747257559</v>
       </c>
       <c r="E5">
-        <v>1.026085137306897</v>
+        <v>1.025246732281535</v>
       </c>
       <c r="F5">
-        <v>1.043051959866419</v>
+        <v>1.042058999814813</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.05070438345449</v>
+        <v>1.050044907842944</v>
       </c>
       <c r="J5">
-        <v>1.037395389446558</v>
+        <v>1.036573244710917</v>
       </c>
       <c r="K5">
-        <v>1.046522957584433</v>
+        <v>1.045067427243481</v>
       </c>
       <c r="L5">
-        <v>1.035661638823722</v>
+        <v>1.034832500680221</v>
       </c>
       <c r="M5">
-        <v>1.052444846565678</v>
+        <v>1.051462430656921</v>
       </c>
       <c r="N5">
-        <v>1.016296363841841</v>
+        <v>1.016847159393019</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.050078906137549</v>
+        <v>1.049301399564369</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.043971392144866</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.04295146916124</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.023810179120177</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.01905763906472</v>
+        <v>1.018210721029378</v>
       </c>
       <c r="D6">
-        <v>1.037169071322649</v>
+        <v>1.035691447355486</v>
       </c>
       <c r="E6">
-        <v>1.026216136979786</v>
+        <v>1.025372887610364</v>
       </c>
       <c r="F6">
-        <v>1.043159443823092</v>
+        <v>1.042162049350466</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.050738796447057</v>
+        <v>1.050076094810228</v>
       </c>
       <c r="J6">
-        <v>1.037469508257951</v>
+        <v>1.036642548614207</v>
       </c>
       <c r="K6">
-        <v>1.046588876736182</v>
+        <v>1.045127103664564</v>
       </c>
       <c r="L6">
-        <v>1.035754770017204</v>
+        <v>1.034920798301722</v>
       </c>
       <c r="M6">
-        <v>1.052515551558576</v>
+        <v>1.051528700558131</v>
       </c>
       <c r="N6">
-        <v>1.016321916707067</v>
+        <v>1.016866142557552</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.050134863665841</v>
+        <v>1.049353847115769</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.044026699836187</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.04300323047698</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.023821855708464</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.018039157228616</v>
+        <v>1.017231409471131</v>
       </c>
       <c r="D7">
-        <v>1.036498619849542</v>
+        <v>1.035068088076939</v>
       </c>
       <c r="E7">
-        <v>1.025342082191392</v>
+        <v>1.024538082592988</v>
       </c>
       <c r="F7">
-        <v>1.042446536324328</v>
+        <v>1.041483147568657</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.050521628518775</v>
+        <v>1.049883915012012</v>
       </c>
       <c r="J7">
-        <v>1.036986484852374</v>
+        <v>1.036198440458776</v>
       </c>
       <c r="K7">
-        <v>1.046172764733735</v>
+        <v>1.044758056411783</v>
       </c>
       <c r="L7">
-        <v>1.035141074860717</v>
+        <v>1.034346201952667</v>
       </c>
       <c r="M7">
-        <v>1.05205546149322</v>
+        <v>1.051102574361462</v>
       </c>
       <c r="N7">
-        <v>1.016157882221773</v>
+        <v>1.016772202689874</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.049770737921512</v>
+        <v>1.049016600802247</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.043736651895447</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.042746878929822</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.023754421916271</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.013707080315762</v>
+        <v>1.013052499116445</v>
       </c>
       <c r="D8">
-        <v>1.033650065763376</v>
+        <v>1.032410212601234</v>
       </c>
       <c r="E8">
-        <v>1.021634115398355</v>
+        <v>1.020983462613323</v>
       </c>
       <c r="F8">
-        <v>1.039424842995319</v>
+        <v>1.038598161197491</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.049579750620874</v>
+        <v>1.049041649585703</v>
       </c>
       <c r="J8">
-        <v>1.034925005634115</v>
+        <v>1.034288734248456</v>
       </c>
       <c r="K8">
-        <v>1.04439272967784</v>
+        <v>1.043168358579249</v>
       </c>
       <c r="L8">
-        <v>1.032528800794915</v>
+        <v>1.031886507519705</v>
       </c>
       <c r="M8">
-        <v>1.050096002718653</v>
+        <v>1.049279496334729</v>
       </c>
       <c r="N8">
-        <v>1.015456909254812</v>
+        <v>1.016309372078369</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.048219975676853</v>
+        <v>1.047573772162146</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.04248257352971</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.041627843830514</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.023456628442366</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.005792487421011</v>
+        <v>1.00540073730335</v>
       </c>
       <c r="D9">
-        <v>1.028472479036628</v>
+        <v>1.027568202693232</v>
       </c>
       <c r="E9">
-        <v>1.014901203363822</v>
+        <v>1.014512857988294</v>
       </c>
       <c r="F9">
-        <v>1.033951882116611</v>
+        <v>1.0333647908663</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.047800150670597</v>
+        <v>1.047434734776652</v>
       </c>
       <c r="J9">
-        <v>1.031142343217662</v>
+        <v>1.030764212558112</v>
       </c>
       <c r="K9">
-        <v>1.041119903258537</v>
+        <v>1.040229296867982</v>
       </c>
       <c r="L9">
-        <v>1.027757058211493</v>
+        <v>1.027374782067719</v>
       </c>
       <c r="M9">
-        <v>1.046517124556695</v>
+        <v>1.045938785658841</v>
       </c>
       <c r="N9">
-        <v>1.014168901901335</v>
+        <v>1.015366576492619</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.04538755805319</v>
+        <v>1.044929844525408</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.0401653331735</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.039546312386919</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.022884309177521</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.000368608099081</v>
+        <v>1.000188520420523</v>
       </c>
       <c r="D10">
-        <v>1.024974070452378</v>
+        <v>1.024320232282162</v>
       </c>
       <c r="E10">
-        <v>1.010324579211975</v>
+        <v>1.010146418112215</v>
       </c>
       <c r="F10">
-        <v>1.030311347238441</v>
+        <v>1.029906418960681</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.046569494389484</v>
+        <v>1.046336106820332</v>
       </c>
       <c r="J10">
-        <v>1.028567608933667</v>
+        <v>1.028394660695937</v>
       </c>
       <c r="K10">
-        <v>1.038906590306693</v>
+        <v>1.038263835709736</v>
       </c>
       <c r="L10">
-        <v>1.024509889238247</v>
+        <v>1.024334860960697</v>
       </c>
       <c r="M10">
-        <v>1.044154069898909</v>
+        <v>1.04375591230257</v>
       </c>
       <c r="N10">
-        <v>1.013296194507489</v>
+        <v>1.014846142138134</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.043568491537829</v>
+        <v>1.043253397173059</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.038617135372005</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.038175034528857</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.022498345733631</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9983279443068066</v>
+        <v>0.9982516341360712</v>
       </c>
       <c r="D11">
-        <v>1.023840292391508</v>
+        <v>1.023288009779128</v>
       </c>
       <c r="E11">
-        <v>1.0086619677374</v>
+        <v>1.008586543139331</v>
       </c>
       <c r="F11">
-        <v>1.029530799784212</v>
+        <v>1.029203322809127</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.046267826073017</v>
+        <v>1.046090330289598</v>
       </c>
       <c r="J11">
-        <v>1.027770448566597</v>
+        <v>1.027697328487749</v>
       </c>
       <c r="K11">
-        <v>1.03832619766734</v>
+        <v>1.037783717376003</v>
       </c>
       <c r="L11">
-        <v>1.023422360119298</v>
+        <v>1.023348326395777</v>
       </c>
       <c r="M11">
-        <v>1.043916498994446</v>
+        <v>1.043594749746011</v>
       </c>
       <c r="N11">
-        <v>1.013059902567304</v>
+        <v>1.014910416590869</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.043814020129557</v>
+        <v>1.043559520434607</v>
       </c>
       <c r="Q11">
-        <v>1.019999999999999</v>
+        <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.03823947827045</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.037871485884243</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.022447759789454</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9976865596476858</v>
+        <v>0.9976384272498552</v>
       </c>
       <c r="D12">
-        <v>1.023552581757847</v>
+        <v>1.023024693547256</v>
       </c>
       <c r="E12">
-        <v>1.008161760579296</v>
+        <v>1.008114203067548</v>
       </c>
       <c r="F12">
-        <v>1.029527891505903</v>
+        <v>1.029219589221794</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.04623951525328</v>
+        <v>1.046074776712403</v>
       </c>
       <c r="J12">
-        <v>1.027589152163759</v>
+        <v>1.027543070449134</v>
       </c>
       <c r="K12">
-        <v>1.038242047099828</v>
+        <v>1.037723682853426</v>
       </c>
       <c r="L12">
-        <v>1.023134247016647</v>
+        <v>1.023087581526098</v>
       </c>
       <c r="M12">
-        <v>1.04411043614106</v>
+        <v>1.043807611122283</v>
       </c>
       <c r="N12">
-        <v>1.013025551597775</v>
+        <v>1.014989195646677</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.044291955183057</v>
+        <v>1.044052504494028</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.03817998158665</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.037829040726346</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.022466961934344</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9980911279574336</v>
+        <v>0.9980045706943304</v>
       </c>
       <c r="D13">
-        <v>1.023912879988905</v>
+        <v>1.023344251136794</v>
       </c>
       <c r="E13">
-        <v>1.008532787345538</v>
+        <v>1.008447256472963</v>
       </c>
       <c r="F13">
-        <v>1.030145425117547</v>
+        <v>1.029806618962429</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.046432487958331</v>
+        <v>1.046243377964729</v>
       </c>
       <c r="J13">
-        <v>1.027883577517628</v>
+        <v>1.027800690490256</v>
       </c>
       <c r="K13">
-        <v>1.038553306305666</v>
+        <v>1.037994893377058</v>
       </c>
       <c r="L13">
-        <v>1.02345482712752</v>
+        <v>1.023370893694638</v>
       </c>
       <c r="M13">
-        <v>1.044674836950778</v>
+        <v>1.044342020835622</v>
       </c>
       <c r="N13">
-        <v>1.01315012479357</v>
+        <v>1.015052914299643</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.045013473708797</v>
+        <v>1.044750373877634</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.038397568649155</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.038018066284853</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.02254585440646</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9988493036515826</v>
+        <v>0.9987062800575635</v>
       </c>
       <c r="D14">
-        <v>1.024459946985203</v>
+        <v>1.023833858824166</v>
       </c>
       <c r="E14">
-        <v>1.009188283560154</v>
+        <v>1.009046919837679</v>
       </c>
       <c r="F14">
-        <v>1.030858958923974</v>
+        <v>1.030476778777096</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.046668028482044</v>
+        <v>1.046445506816651</v>
       </c>
       <c r="J14">
-        <v>1.028305754012041</v>
+        <v>1.028168709643009</v>
       </c>
       <c r="K14">
-        <v>1.038951254638526</v>
+        <v>1.038336276818101</v>
       </c>
       <c r="L14">
-        <v>1.023955722291208</v>
+        <v>1.023816965488454</v>
       </c>
       <c r="M14">
-        <v>1.04523771408764</v>
+        <v>1.044862205289712</v>
       </c>
       <c r="N14">
-        <v>1.013309634223522</v>
+        <v>1.01509218080733</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.045630957607934</v>
+        <v>1.045334147886716</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.038680346951498</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.038260985401517</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.022628614723346</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9992659831604618</v>
+        <v>0.9990951237120042</v>
       </c>
       <c r="D15">
-        <v>1.024742037495607</v>
+        <v>1.024087920960264</v>
       </c>
       <c r="E15">
-        <v>1.009542617492449</v>
+        <v>1.009373715012284</v>
       </c>
       <c r="F15">
-        <v>1.031182504293384</v>
+        <v>1.030779134092638</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.046778161441591</v>
+        <v>1.046539622346295</v>
       </c>
       <c r="J15">
-        <v>1.028518056070124</v>
+        <v>1.028354278037454</v>
       </c>
       <c r="K15">
-        <v>1.039142544395766</v>
+        <v>1.038499948636268</v>
       </c>
       <c r="L15">
-        <v>1.024215849709772</v>
+        <v>1.024050037954692</v>
       </c>
       <c r="M15">
-        <v>1.045470586779387</v>
+        <v>1.045074204422002</v>
       </c>
       <c r="N15">
-        <v>1.013385378636319</v>
+        <v>1.015103104845308</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.045852401361939</v>
+        <v>1.045539100967624</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.038821437921052</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.038383118090349</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.02266436233344</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.001481643461232</v>
+        <v>1.001183130349203</v>
       </c>
       <c r="D16">
-        <v>1.02615780664877</v>
+        <v>1.025373596970333</v>
       </c>
       <c r="E16">
-        <v>1.011402447717412</v>
+        <v>1.011107097659126</v>
       </c>
       <c r="F16">
-        <v>1.032635300892001</v>
+        <v>1.032134016541887</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.047277074134027</v>
+        <v>1.046966183484425</v>
       </c>
       <c r="J16">
-        <v>1.029560001994123</v>
+        <v>1.029273250217291</v>
       </c>
       <c r="K16">
-        <v>1.040034966914825</v>
+        <v>1.039263974742625</v>
       </c>
       <c r="L16">
-        <v>1.025532752553153</v>
+        <v>1.025242567254808</v>
       </c>
       <c r="M16">
-        <v>1.046404274213943</v>
+        <v>1.045911299887287</v>
       </c>
       <c r="N16">
-        <v>1.013734060554128</v>
+        <v>1.015141042265424</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.046551833755591</v>
+        <v>1.046162176150886</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.039455560422016</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.038926759646042</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.022810396040239</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.002786775601455</v>
+        <v>1.002427556465036</v>
       </c>
       <c r="D17">
-        <v>1.026959212221726</v>
+        <v>1.026110574594713</v>
       </c>
       <c r="E17">
-        <v>1.012489234148901</v>
+        <v>1.012133634478681</v>
       </c>
       <c r="F17">
-        <v>1.033372467903903</v>
+        <v>1.032823213839074</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.047534578030517</v>
+        <v>1.047189089563886</v>
       </c>
       <c r="J17">
-        <v>1.030138281761512</v>
+        <v>1.029792765833709</v>
       </c>
       <c r="K17">
-        <v>1.040510502727229</v>
+        <v>1.039675772126538</v>
       </c>
       <c r="L17">
-        <v>1.0262817690321</v>
+        <v>1.025932210056203</v>
       </c>
       <c r="M17">
-        <v>1.046819609091706</v>
+        <v>1.046279209750622</v>
       </c>
       <c r="N17">
-        <v>1.013917920052969</v>
+        <v>1.015178388382274</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.046751661553667</v>
+        <v>1.046324475990323</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.039794356288817</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.039220737881387</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.022879697270218</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.003420649280143</v>
+        <v>1.003043955401124</v>
       </c>
       <c r="D18">
-        <v>1.027284380140012</v>
+        <v>1.026416328194139</v>
       </c>
       <c r="E18">
-        <v>1.012998374160491</v>
+        <v>1.012625365358438</v>
       </c>
       <c r="F18">
-        <v>1.03351673717006</v>
+        <v>1.032953162075406</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.047596349054129</v>
+        <v>1.047241672197189</v>
       </c>
       <c r="J18">
-        <v>1.030355048564989</v>
+        <v>1.029992456952838</v>
       </c>
       <c r="K18">
-        <v>1.040648202245033</v>
+        <v>1.039794145195461</v>
       </c>
       <c r="L18">
-        <v>1.026596448356605</v>
+        <v>1.026229669984085</v>
       </c>
       <c r="M18">
-        <v>1.046780964261113</v>
+        <v>1.046226331956165</v>
       </c>
       <c r="N18">
-        <v>1.013970407641436</v>
+        <v>1.015176428812221</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.046484607510437</v>
+        <v>1.046046080247701</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.039880132448775</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.039291715852284</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.022880943380993</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.003455144910996</v>
+        <v>1.003094133650326</v>
       </c>
       <c r="D19">
-        <v>1.027190418788953</v>
+        <v>1.026339704462045</v>
       </c>
       <c r="E19">
-        <v>1.01299231163916</v>
+        <v>1.012634798868016</v>
       </c>
       <c r="F19">
-        <v>1.033126664453077</v>
+        <v>1.032575795508562</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.0474895297725</v>
+        <v>1.047145837496805</v>
       </c>
       <c r="J19">
-        <v>1.030254385605613</v>
+        <v>1.029906808938746</v>
       </c>
       <c r="K19">
-        <v>1.040493635777971</v>
+        <v>1.039656566664323</v>
       </c>
       <c r="L19">
-        <v>1.026527125634416</v>
+        <v>1.026175552491097</v>
       </c>
       <c r="M19">
-        <v>1.046335466575182</v>
+        <v>1.045793300588329</v>
       </c>
       <c r="N19">
-        <v>1.01391060332419</v>
+        <v>1.015123775054716</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.045808675673408</v>
+        <v>1.045379866481822</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.039777215138945</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.039201434007217</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.02282480732917</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.001796133263352</v>
+        <v>1.001540816578368</v>
       </c>
       <c r="D20">
-        <v>1.025909255638771</v>
+        <v>1.025176080956475</v>
       </c>
       <c r="E20">
-        <v>1.011530502326766</v>
+        <v>1.011277781461042</v>
       </c>
       <c r="F20">
-        <v>1.031276568566596</v>
+        <v>1.030812253949759</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.019999999999999</v>
+      </c>
       <c r="I20">
-        <v>1.046907921297678</v>
+        <v>1.046630410563613</v>
       </c>
       <c r="J20">
-        <v>1.029257992135898</v>
+        <v>1.029012471270479</v>
       </c>
       <c r="K20">
-        <v>1.039511323847951</v>
+        <v>1.038790228171983</v>
       </c>
       <c r="L20">
-        <v>1.025373587222938</v>
+        <v>1.025125181637274</v>
       </c>
       <c r="M20">
-        <v>1.044790882484789</v>
+        <v>1.044334112919011</v>
       </c>
       <c r="N20">
-        <v>1.013532824638222</v>
+        <v>1.014916166411695</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.044061973681343</v>
+        <v>1.043700490578741</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.039086591052481</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.038593197284081</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.022604797379497</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9976650021415304</v>
+        <v>0.9976693350789195</v>
       </c>
       <c r="D21">
-        <v>1.023217775117575</v>
+        <v>1.022746593867454</v>
       </c>
       <c r="E21">
-        <v>1.008045392270162</v>
+        <v>1.008049674403624</v>
       </c>
       <c r="F21">
-        <v>1.02840284627469</v>
+        <v>1.028136958909661</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.045925367010322</v>
+        <v>1.045796879545545</v>
       </c>
       <c r="J21">
-        <v>1.027260674095456</v>
+        <v>1.027264824665895</v>
       </c>
       <c r="K21">
-        <v>1.037772237681193</v>
+        <v>1.037309469932261</v>
       </c>
       <c r="L21">
-        <v>1.022875928668428</v>
+        <v>1.022880131355979</v>
       </c>
       <c r="M21">
-        <v>1.042865383380546</v>
+        <v>1.042604180657639</v>
       </c>
       <c r="N21">
-        <v>1.012849446156438</v>
+        <v>1.014858180666327</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.042497463466297</v>
+        <v>1.042290739565604</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.037860212264672</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.037549792507463</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.022309728734077</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9950345550441161</v>
+        <v>0.9952027200666993</v>
       </c>
       <c r="D22">
-        <v>1.021514950527351</v>
+        <v>1.021209109468378</v>
       </c>
       <c r="E22">
-        <v>1.005835084208751</v>
+        <v>1.006001104140587</v>
       </c>
       <c r="F22">
-        <v>1.026615854604758</v>
+        <v>1.026475386863353</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.045299115724541</v>
+        <v>1.045264722228629</v>
       </c>
       <c r="J22">
-        <v>1.025994244134417</v>
+        <v>1.02615492415893</v>
       </c>
       <c r="K22">
-        <v>1.03667191065807</v>
+        <v>1.036371802012611</v>
       </c>
       <c r="L22">
-        <v>1.021291826479144</v>
+        <v>1.02145460808425</v>
       </c>
       <c r="M22">
-        <v>1.041677864318653</v>
+        <v>1.04153999483097</v>
       </c>
       <c r="N22">
-        <v>1.012417005158882</v>
+        <v>1.014814883236923</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.04155762373569</v>
+        <v>1.041448509431636</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.037068786653515</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.036872074038193</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.022121937122178</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9964248073299233</v>
+        <v>0.9964952236815994</v>
       </c>
       <c r="D23">
-        <v>1.022408840809292</v>
+        <v>1.022007509102743</v>
       </c>
       <c r="E23">
-        <v>1.00700134562498</v>
+        <v>1.007070902539288</v>
       </c>
       <c r="F23">
-        <v>1.027557378548683</v>
+        <v>1.027343829019653</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.045626737097716</v>
+        <v>1.045537110414255</v>
       </c>
       <c r="J23">
-        <v>1.026659544896446</v>
+        <v>1.026726917859741</v>
       </c>
       <c r="K23">
-        <v>1.037246226804189</v>
+        <v>1.03685222814828</v>
       </c>
       <c r="L23">
-        <v>1.022125740626799</v>
+        <v>1.022193976036874</v>
       </c>
       <c r="M23">
-        <v>1.042301351943725</v>
+        <v>1.042091652761274</v>
       </c>
       <c r="N23">
-        <v>1.012643276785696</v>
+        <v>1.014793252300461</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.042051071496509</v>
+        <v>1.041885108990644</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.037465253496929</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.037201215497627</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.022216065707053</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.001816691151083</v>
+        <v>1.001562405891592</v>
       </c>
       <c r="D24">
-        <v>1.02589707904088</v>
+        <v>1.025164989897255</v>
       </c>
       <c r="E24">
-        <v>1.01154094690428</v>
+        <v>1.011289241064811</v>
       </c>
       <c r="F24">
-        <v>1.031229709447707</v>
+        <v>1.030766211084092</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.046890361893712</v>
+        <v>1.046613701768406</v>
       </c>
       <c r="J24">
-        <v>1.029244987938094</v>
+        <v>1.029000444650164</v>
       </c>
       <c r="K24">
-        <v>1.039484179888084</v>
+        <v>1.038764136781546</v>
       </c>
       <c r="L24">
-        <v>1.025368377129334</v>
+        <v>1.025120963594556</v>
       </c>
       <c r="M24">
-        <v>1.044729728134535</v>
+        <v>1.044273752804045</v>
       </c>
       <c r="N24">
-        <v>1.013524062948541</v>
+        <v>1.014905813843268</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.043972961767774</v>
+        <v>1.043612089504526</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.039040111705462</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.038544792224612</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.022593678521566</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.00788613493229</v>
+        <v>1.007415759200266</v>
       </c>
       <c r="D25">
-        <v>1.029847209637442</v>
+        <v>1.028848104204253</v>
       </c>
       <c r="E25">
-        <v>1.016679051161895</v>
+        <v>1.016212419081873</v>
       </c>
       <c r="F25">
-        <v>1.035397038936306</v>
+        <v>1.034741320524401</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.048283787163434</v>
+        <v>1.047868486356232</v>
       </c>
       <c r="J25">
-        <v>1.032150982958117</v>
+        <v>1.031696105107588</v>
       </c>
       <c r="K25">
-        <v>1.041999204081174</v>
+        <v>1.041014507890959</v>
       </c>
       <c r="L25">
-        <v>1.029023848565237</v>
+        <v>1.028564165293325</v>
       </c>
       <c r="M25">
-        <v>1.04746963332136</v>
+        <v>1.046823239980252</v>
       </c>
       <c r="N25">
-        <v>1.014513819693012</v>
+        <v>1.015586641294025</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.046141399423206</v>
+        <v>1.04562982621826</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.04081549927763</v>
+        <v>1.040132753208735</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.023040796811031</v>
       </c>
     </row>
   </sheetData>
